--- a/datasets/xlsx_datasets/cryptos.xlsx
+++ b/datasets/xlsx_datasets/cryptos.xlsx
@@ -474,3202 +474,3202 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45295.54166666666</v>
+        <v>45295.875</v>
       </c>
       <c r="B2" t="n">
-        <v>43404</v>
+        <v>44187.6</v>
       </c>
       <c r="C2" t="n">
-        <v>43514</v>
+        <v>44513</v>
       </c>
       <c r="D2" t="n">
-        <v>43207.8</v>
+        <v>44187.6</v>
       </c>
       <c r="E2" t="n">
-        <v>43418</v>
+        <v>44476.1</v>
       </c>
       <c r="F2" t="n">
-        <v>96.80109757</v>
+        <v>169.32164979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45295.58333333334</v>
+        <v>45295.91666666666</v>
       </c>
       <c r="B3" t="n">
-        <v>43418.1</v>
+        <v>44476.1</v>
       </c>
       <c r="C3" t="n">
-        <v>43745.1</v>
+        <v>44784.9</v>
       </c>
       <c r="D3" t="n">
-        <v>43321.1</v>
+        <v>44250.1</v>
       </c>
       <c r="E3" t="n">
-        <v>43700.8</v>
+        <v>44372.3</v>
       </c>
       <c r="F3" t="n">
-        <v>241.77443648</v>
+        <v>247.77125769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45295.625</v>
+        <v>45295.95833333334</v>
       </c>
       <c r="B4" t="n">
-        <v>43700.9</v>
+        <v>44372.4</v>
       </c>
       <c r="C4" t="n">
-        <v>44312.9</v>
+        <v>44399</v>
       </c>
       <c r="D4" t="n">
-        <v>43661.5</v>
+        <v>44119.8</v>
       </c>
       <c r="E4" t="n">
-        <v>44118.5</v>
+        <v>44211.9</v>
       </c>
       <c r="F4" t="n">
-        <v>505.32648157</v>
+        <v>86.47044269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45295.66666666666</v>
+        <v>45296</v>
       </c>
       <c r="B5" t="n">
-        <v>44118.5</v>
+        <v>44210</v>
       </c>
       <c r="C5" t="n">
-        <v>44179</v>
+        <v>44277.2</v>
       </c>
       <c r="D5" t="n">
-        <v>43825</v>
+        <v>44038.2</v>
       </c>
       <c r="E5" t="n">
-        <v>43961.9</v>
+        <v>44275.1</v>
       </c>
       <c r="F5" t="n">
-        <v>234.41846905</v>
+        <v>73.31234388999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45295.70833333334</v>
+        <v>45296.04166666666</v>
       </c>
       <c r="B6" t="n">
-        <v>43961.9</v>
+        <v>44275.1</v>
       </c>
       <c r="C6" t="n">
-        <v>44241.9</v>
+        <v>44296.9</v>
       </c>
       <c r="D6" t="n">
-        <v>43866.5</v>
+        <v>42480</v>
       </c>
       <c r="E6" t="n">
-        <v>44056.5</v>
+        <v>43415.7</v>
       </c>
       <c r="F6" t="n">
-        <v>171.09284361</v>
+        <v>669.53993134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45295.75</v>
+        <v>45296.08333333334</v>
       </c>
       <c r="B7" t="n">
-        <v>44056.5</v>
+        <v>43424.7</v>
       </c>
       <c r="C7" t="n">
-        <v>44163.1</v>
+        <v>44012</v>
       </c>
       <c r="D7" t="n">
-        <v>43932.2</v>
+        <v>43375.6</v>
       </c>
       <c r="E7" t="n">
-        <v>44095.9</v>
+        <v>43531.2</v>
       </c>
       <c r="F7" t="n">
-        <v>200.68049547</v>
+        <v>325.11201395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45295.79166666666</v>
+        <v>45296.125</v>
       </c>
       <c r="B8" t="n">
-        <v>44092.3</v>
+        <v>43531.3</v>
       </c>
       <c r="C8" t="n">
-        <v>44493.4</v>
+        <v>43759.8</v>
       </c>
       <c r="D8" t="n">
-        <v>43976.4</v>
+        <v>43465.1</v>
       </c>
       <c r="E8" t="n">
-        <v>44026.2</v>
+        <v>43500.6</v>
       </c>
       <c r="F8" t="n">
-        <v>212.8435301</v>
+        <v>48.44662199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45295.83333333334</v>
+        <v>45296.16666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>44026.3</v>
+        <v>43498</v>
       </c>
       <c r="C9" t="n">
-        <v>44644</v>
+        <v>43649.9</v>
       </c>
       <c r="D9" t="n">
-        <v>43963.1</v>
+        <v>43274</v>
       </c>
       <c r="E9" t="n">
-        <v>44187.6</v>
+        <v>43614.9</v>
       </c>
       <c r="F9" t="n">
-        <v>295.39095837</v>
+        <v>70.91597139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45295.875</v>
+        <v>45296.20833333334</v>
       </c>
       <c r="B10" t="n">
-        <v>44187.6</v>
+        <v>43615</v>
       </c>
       <c r="C10" t="n">
-        <v>44513</v>
+        <v>43729.8</v>
       </c>
       <c r="D10" t="n">
-        <v>44187.6</v>
+        <v>43564.4</v>
       </c>
       <c r="E10" t="n">
-        <v>44476.1</v>
+        <v>43680.8</v>
       </c>
       <c r="F10" t="n">
-        <v>169.32164979</v>
+        <v>145.97042759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45295.91666666666</v>
+        <v>45296.25</v>
       </c>
       <c r="B11" t="n">
-        <v>44476.1</v>
+        <v>43670.6</v>
       </c>
       <c r="C11" t="n">
-        <v>44784.9</v>
+        <v>43947.4</v>
       </c>
       <c r="D11" t="n">
-        <v>44250.1</v>
+        <v>43604.3</v>
       </c>
       <c r="E11" t="n">
-        <v>44372.3</v>
+        <v>43882.9</v>
       </c>
       <c r="F11" t="n">
-        <v>247.77125769</v>
+        <v>63.79493079</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45295.95833333334</v>
+        <v>45296.29166666666</v>
       </c>
       <c r="B12" t="n">
-        <v>44372.4</v>
+        <v>43881.7</v>
       </c>
       <c r="C12" t="n">
-        <v>44399</v>
+        <v>43920.1</v>
       </c>
       <c r="D12" t="n">
-        <v>44119.8</v>
+        <v>43766.4</v>
       </c>
       <c r="E12" t="n">
-        <v>44211.9</v>
+        <v>43831.7</v>
       </c>
       <c r="F12" t="n">
-        <v>86.47044269</v>
+        <v>95.01431432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45296</v>
+        <v>45296.33333333334</v>
       </c>
       <c r="B13" t="n">
-        <v>44210</v>
+        <v>43831.7</v>
       </c>
       <c r="C13" t="n">
-        <v>44277.2</v>
+        <v>43973.9</v>
       </c>
       <c r="D13" t="n">
-        <v>44038.2</v>
+        <v>43810.6</v>
       </c>
       <c r="E13" t="n">
-        <v>44275.1</v>
+        <v>43944</v>
       </c>
       <c r="F13" t="n">
-        <v>73.31234388999999</v>
+        <v>39.65854889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45296.04166666666</v>
+        <v>45296.375</v>
       </c>
       <c r="B14" t="n">
-        <v>44275.1</v>
+        <v>43944</v>
       </c>
       <c r="C14" t="n">
-        <v>44296.9</v>
+        <v>44295</v>
       </c>
       <c r="D14" t="n">
-        <v>42480</v>
+        <v>43943.9</v>
       </c>
       <c r="E14" t="n">
-        <v>43415.7</v>
+        <v>44197.1</v>
       </c>
       <c r="F14" t="n">
-        <v>669.53993134</v>
+        <v>156.17828181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45296.08333333334</v>
+        <v>45296.41666666666</v>
       </c>
       <c r="B15" t="n">
-        <v>43424.7</v>
+        <v>44196.6</v>
       </c>
       <c r="C15" t="n">
-        <v>44012</v>
+        <v>44196.6</v>
       </c>
       <c r="D15" t="n">
-        <v>43375.6</v>
+        <v>43550</v>
       </c>
       <c r="E15" t="n">
-        <v>43531.2</v>
+        <v>43642.2</v>
       </c>
       <c r="F15" t="n">
-        <v>325.11201395</v>
+        <v>125.10130554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45296.125</v>
+        <v>45296.45833333334</v>
       </c>
       <c r="B16" t="n">
-        <v>43531.3</v>
+        <v>43659.7</v>
       </c>
       <c r="C16" t="n">
-        <v>43759.8</v>
+        <v>43926.4</v>
       </c>
       <c r="D16" t="n">
-        <v>43465.1</v>
+        <v>43642.8</v>
       </c>
       <c r="E16" t="n">
-        <v>43500.6</v>
+        <v>43800</v>
       </c>
       <c r="F16" t="n">
-        <v>48.44662199</v>
+        <v>63.34766785</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45296.16666666666</v>
+        <v>45296.5</v>
       </c>
       <c r="B17" t="n">
-        <v>43498</v>
+        <v>43800.1</v>
       </c>
       <c r="C17" t="n">
-        <v>43649.9</v>
+        <v>44135.8</v>
       </c>
       <c r="D17" t="n">
-        <v>43274</v>
+        <v>43687.4</v>
       </c>
       <c r="E17" t="n">
-        <v>43614.9</v>
+        <v>43900.1</v>
       </c>
       <c r="F17" t="n">
-        <v>70.91597139</v>
+        <v>59.97454709</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45296.20833333334</v>
+        <v>45296.54166666666</v>
       </c>
       <c r="B18" t="n">
-        <v>43615</v>
+        <v>43913</v>
       </c>
       <c r="C18" t="n">
-        <v>43729.8</v>
+        <v>44085</v>
       </c>
       <c r="D18" t="n">
-        <v>43564.4</v>
+        <v>43791.7</v>
       </c>
       <c r="E18" t="n">
-        <v>43680.8</v>
+        <v>44039.5</v>
       </c>
       <c r="F18" t="n">
-        <v>145.97042759</v>
+        <v>116.2733232</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45296.25</v>
+        <v>45296.58333333334</v>
       </c>
       <c r="B19" t="n">
-        <v>43670.6</v>
+        <v>44030.6</v>
       </c>
       <c r="C19" t="n">
-        <v>43947.4</v>
+        <v>44095</v>
       </c>
       <c r="D19" t="n">
-        <v>43604.3</v>
+        <v>43259.5</v>
       </c>
       <c r="E19" t="n">
-        <v>43882.9</v>
+        <v>43514</v>
       </c>
       <c r="F19" t="n">
-        <v>63.79493079</v>
+        <v>181.18727801</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45296.29166666666</v>
+        <v>45296.625</v>
       </c>
       <c r="B20" t="n">
-        <v>43881.7</v>
+        <v>43515.2</v>
       </c>
       <c r="C20" t="n">
-        <v>43920.1</v>
+        <v>43836.9</v>
       </c>
       <c r="D20" t="n">
-        <v>43766.4</v>
+        <v>43408.9</v>
       </c>
       <c r="E20" t="n">
-        <v>43831.7</v>
+        <v>43528.5</v>
       </c>
       <c r="F20" t="n">
-        <v>95.01431432</v>
+        <v>133.05403447</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296.33333333334</v>
+        <v>45296.66666666666</v>
       </c>
       <c r="B21" t="n">
-        <v>43831.7</v>
+        <v>43528.5</v>
       </c>
       <c r="C21" t="n">
-        <v>43973.9</v>
+        <v>43628.6</v>
       </c>
       <c r="D21" t="n">
-        <v>43810.6</v>
+        <v>43282.9</v>
       </c>
       <c r="E21" t="n">
-        <v>43944</v>
+        <v>43290</v>
       </c>
       <c r="F21" t="n">
-        <v>39.65854889</v>
+        <v>96.62488989000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45296.375</v>
+        <v>45296.70833333334</v>
       </c>
       <c r="B22" t="n">
-        <v>43944</v>
+        <v>43290</v>
       </c>
       <c r="C22" t="n">
-        <v>44295</v>
+        <v>43661.6</v>
       </c>
       <c r="D22" t="n">
-        <v>43943.9</v>
+        <v>43152.2</v>
       </c>
       <c r="E22" t="n">
-        <v>44197.1</v>
+        <v>43661.4</v>
       </c>
       <c r="F22" t="n">
-        <v>156.17828181</v>
+        <v>133.80976674</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45296.41666666666</v>
+        <v>45296.75</v>
       </c>
       <c r="B23" t="n">
-        <v>44196.6</v>
+        <v>43646.5</v>
       </c>
       <c r="C23" t="n">
-        <v>44196.6</v>
+        <v>43699.9</v>
       </c>
       <c r="D23" t="n">
-        <v>43550</v>
+        <v>43461</v>
       </c>
       <c r="E23" t="n">
-        <v>43642.2</v>
+        <v>43629.1</v>
       </c>
       <c r="F23" t="n">
-        <v>125.10130554</v>
+        <v>44.31354593</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45296.45833333334</v>
+        <v>45296.79166666666</v>
       </c>
       <c r="B24" t="n">
-        <v>43659.7</v>
+        <v>43645.4</v>
       </c>
       <c r="C24" t="n">
-        <v>43926.4</v>
+        <v>43805.4</v>
       </c>
       <c r="D24" t="n">
-        <v>43642.8</v>
+        <v>43558.5</v>
       </c>
       <c r="E24" t="n">
-        <v>43800</v>
+        <v>43632.4</v>
       </c>
       <c r="F24" t="n">
-        <v>63.34766785</v>
+        <v>62.21654658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45296.5</v>
+        <v>45296.83333333334</v>
       </c>
       <c r="B25" t="n">
-        <v>43800.1</v>
+        <v>43634.6</v>
       </c>
       <c r="C25" t="n">
-        <v>44135.8</v>
+        <v>44347</v>
       </c>
       <c r="D25" t="n">
-        <v>43687.4</v>
+        <v>43632.6</v>
       </c>
       <c r="E25" t="n">
-        <v>43900.1</v>
+        <v>44002.7</v>
       </c>
       <c r="F25" t="n">
-        <v>59.97454709</v>
+        <v>258.50870049</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45296.54166666666</v>
+        <v>45296.875</v>
       </c>
       <c r="B26" t="n">
-        <v>43913</v>
+        <v>44002.6</v>
       </c>
       <c r="C26" t="n">
-        <v>44085</v>
+        <v>44002.7</v>
       </c>
       <c r="D26" t="n">
-        <v>43791.7</v>
+        <v>43658.5</v>
       </c>
       <c r="E26" t="n">
-        <v>44039.5</v>
+        <v>43937</v>
       </c>
       <c r="F26" t="n">
-        <v>116.2733232</v>
+        <v>79.94700759</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45296.58333333334</v>
+        <v>45296.91666666666</v>
       </c>
       <c r="B27" t="n">
-        <v>44030.6</v>
+        <v>43942.2</v>
       </c>
       <c r="C27" t="n">
-        <v>44095</v>
+        <v>44110.1</v>
       </c>
       <c r="D27" t="n">
-        <v>43259.5</v>
+        <v>43819.2</v>
       </c>
       <c r="E27" t="n">
-        <v>43514</v>
+        <v>44001</v>
       </c>
       <c r="F27" t="n">
-        <v>181.18727801</v>
+        <v>190.20194725</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45296.625</v>
+        <v>45296.95833333334</v>
       </c>
       <c r="B28" t="n">
-        <v>43515.2</v>
+        <v>44003.9</v>
       </c>
       <c r="C28" t="n">
-        <v>43836.9</v>
+        <v>44365</v>
       </c>
       <c r="D28" t="n">
-        <v>43408.9</v>
+        <v>44003.9</v>
       </c>
       <c r="E28" t="n">
-        <v>43528.5</v>
+        <v>44179.9</v>
       </c>
       <c r="F28" t="n">
-        <v>133.05403447</v>
+        <v>138.54306676</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45296.66666666666</v>
+        <v>45297</v>
       </c>
       <c r="B29" t="n">
-        <v>43528.5</v>
+        <v>44179.9</v>
       </c>
       <c r="C29" t="n">
-        <v>43628.6</v>
+        <v>44241.8</v>
       </c>
       <c r="D29" t="n">
-        <v>43282.9</v>
+        <v>44050.1</v>
       </c>
       <c r="E29" t="n">
-        <v>43290</v>
+        <v>44103.7</v>
       </c>
       <c r="F29" t="n">
-        <v>96.62488989000001</v>
+        <v>41.45211494</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45296.70833333334</v>
+        <v>45297.04166666666</v>
       </c>
       <c r="B30" t="n">
-        <v>43290</v>
+        <v>44103.7</v>
       </c>
       <c r="C30" t="n">
-        <v>43661.6</v>
+        <v>44103.8</v>
       </c>
       <c r="D30" t="n">
-        <v>43152.2</v>
+        <v>43972</v>
       </c>
       <c r="E30" t="n">
-        <v>43661.4</v>
+        <v>44006.8</v>
       </c>
       <c r="F30" t="n">
-        <v>133.80976674</v>
+        <v>45.76600702</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45296.75</v>
+        <v>45297.08333333334</v>
       </c>
       <c r="B31" t="n">
-        <v>43646.5</v>
+        <v>44006.9</v>
       </c>
       <c r="C31" t="n">
-        <v>43699.9</v>
+        <v>44029.9</v>
       </c>
       <c r="D31" t="n">
-        <v>43461</v>
+        <v>43900.1</v>
       </c>
       <c r="E31" t="n">
-        <v>43629.1</v>
+        <v>43951.3</v>
       </c>
       <c r="F31" t="n">
-        <v>44.31354593</v>
+        <v>17.7828372</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45296.79166666666</v>
+        <v>45297.125</v>
       </c>
       <c r="B32" t="n">
-        <v>43645.4</v>
+        <v>43951.3</v>
       </c>
       <c r="C32" t="n">
-        <v>43805.4</v>
+        <v>44048.2</v>
       </c>
       <c r="D32" t="n">
-        <v>43558.5</v>
+        <v>43884.8</v>
       </c>
       <c r="E32" t="n">
-        <v>43632.4</v>
+        <v>43988</v>
       </c>
       <c r="F32" t="n">
-        <v>62.21654658</v>
+        <v>11.7760208</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45296.83333333334</v>
+        <v>45297.16666666666</v>
       </c>
       <c r="B33" t="n">
-        <v>43634.6</v>
+        <v>43988</v>
       </c>
       <c r="C33" t="n">
-        <v>44347</v>
+        <v>43988</v>
       </c>
       <c r="D33" t="n">
-        <v>43632.6</v>
+        <v>43879</v>
       </c>
       <c r="E33" t="n">
-        <v>44002.7</v>
+        <v>43885.5</v>
       </c>
       <c r="F33" t="n">
-        <v>258.50870049</v>
+        <v>16.09674633</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45296.875</v>
+        <v>45297.20833333334</v>
       </c>
       <c r="B34" t="n">
-        <v>44002.6</v>
+        <v>43885.5</v>
       </c>
       <c r="C34" t="n">
-        <v>44002.7</v>
+        <v>43900</v>
       </c>
       <c r="D34" t="n">
-        <v>43658.5</v>
+        <v>43666.9</v>
       </c>
       <c r="E34" t="n">
-        <v>43937</v>
+        <v>43731.6</v>
       </c>
       <c r="F34" t="n">
-        <v>79.94700759</v>
+        <v>41.64529922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45296.91666666666</v>
+        <v>45297.25</v>
       </c>
       <c r="B35" t="n">
-        <v>43942.2</v>
+        <v>43731.7</v>
       </c>
       <c r="C35" t="n">
-        <v>44110.1</v>
+        <v>43731.7</v>
       </c>
       <c r="D35" t="n">
-        <v>43819.2</v>
+        <v>43500</v>
       </c>
       <c r="E35" t="n">
-        <v>44001</v>
+        <v>43500.1</v>
       </c>
       <c r="F35" t="n">
-        <v>190.20194725</v>
+        <v>59.22518149</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45296.95833333334</v>
+        <v>45297.29166666666</v>
       </c>
       <c r="B36" t="n">
-        <v>44003.9</v>
+        <v>43500.1</v>
       </c>
       <c r="C36" t="n">
-        <v>44365</v>
+        <v>43797.5</v>
       </c>
       <c r="D36" t="n">
-        <v>44003.9</v>
+        <v>43451</v>
       </c>
       <c r="E36" t="n">
-        <v>44179.9</v>
+        <v>43708</v>
       </c>
       <c r="F36" t="n">
-        <v>138.54306676</v>
+        <v>154.03462214</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45297</v>
+        <v>45297.33333333334</v>
       </c>
       <c r="B37" t="n">
-        <v>44179.9</v>
+        <v>43708</v>
       </c>
       <c r="C37" t="n">
-        <v>44241.8</v>
+        <v>43760.6</v>
       </c>
       <c r="D37" t="n">
-        <v>44050.1</v>
+        <v>43611.7</v>
       </c>
       <c r="E37" t="n">
-        <v>44103.7</v>
+        <v>43740.1</v>
       </c>
       <c r="F37" t="n">
-        <v>41.45211494</v>
+        <v>47.86140058</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45297.04166666666</v>
+        <v>45297.375</v>
       </c>
       <c r="B38" t="n">
-        <v>44103.7</v>
+        <v>43740.1</v>
       </c>
       <c r="C38" t="n">
-        <v>44103.8</v>
+        <v>43779.1</v>
       </c>
       <c r="D38" t="n">
-        <v>43972</v>
+        <v>43666.1</v>
       </c>
       <c r="E38" t="n">
-        <v>44006.8</v>
+        <v>43666.2</v>
       </c>
       <c r="F38" t="n">
-        <v>45.76600702</v>
+        <v>16.0618764</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45297.08333333334</v>
+        <v>45297.41666666666</v>
       </c>
       <c r="B39" t="n">
-        <v>44006.9</v>
+        <v>43666.2</v>
       </c>
       <c r="C39" t="n">
-        <v>44029.9</v>
+        <v>43783.5</v>
       </c>
       <c r="D39" t="n">
-        <v>43900.1</v>
+        <v>43614.8</v>
       </c>
       <c r="E39" t="n">
-        <v>43951.3</v>
+        <v>43720.3</v>
       </c>
       <c r="F39" t="n">
-        <v>17.7828372</v>
+        <v>11.45600541</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45297.125</v>
+        <v>45297.45833333334</v>
       </c>
       <c r="B40" t="n">
-        <v>43951.3</v>
+        <v>43720.3</v>
       </c>
       <c r="C40" t="n">
-        <v>44048.2</v>
+        <v>43728</v>
       </c>
       <c r="D40" t="n">
-        <v>43884.8</v>
+        <v>43649.1</v>
       </c>
       <c r="E40" t="n">
-        <v>43988</v>
+        <v>43683.5</v>
       </c>
       <c r="F40" t="n">
-        <v>11.7760208</v>
+        <v>11.97326096</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45297.16666666666</v>
+        <v>45297.5</v>
       </c>
       <c r="B41" t="n">
-        <v>43988</v>
+        <v>43683.6</v>
       </c>
       <c r="C41" t="n">
-        <v>43988</v>
+        <v>43750.6</v>
       </c>
       <c r="D41" t="n">
-        <v>43879</v>
+        <v>43605</v>
       </c>
       <c r="E41" t="n">
-        <v>43885.5</v>
+        <v>43636.5</v>
       </c>
       <c r="F41" t="n">
-        <v>16.09674633</v>
+        <v>20.48705977</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45297.20833333334</v>
+        <v>45297.54166666666</v>
       </c>
       <c r="B42" t="n">
-        <v>43885.5</v>
+        <v>43634.3</v>
       </c>
       <c r="C42" t="n">
-        <v>43900</v>
+        <v>43767.6</v>
       </c>
       <c r="D42" t="n">
-        <v>43666.9</v>
+        <v>43605</v>
       </c>
       <c r="E42" t="n">
-        <v>43731.6</v>
+        <v>43737.5</v>
       </c>
       <c r="F42" t="n">
-        <v>41.64529922</v>
+        <v>19.53731728</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45297.25</v>
+        <v>45297.58333333334</v>
       </c>
       <c r="B43" t="n">
-        <v>43731.7</v>
+        <v>43737.6</v>
       </c>
       <c r="C43" t="n">
-        <v>43731.7</v>
+        <v>43947.7</v>
       </c>
       <c r="D43" t="n">
-        <v>43500</v>
+        <v>43737.5</v>
       </c>
       <c r="E43" t="n">
-        <v>43500.1</v>
+        <v>43833.2</v>
       </c>
       <c r="F43" t="n">
-        <v>59.22518149</v>
+        <v>24.5217373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45297.29166666666</v>
+        <v>45297.625</v>
       </c>
       <c r="B44" t="n">
-        <v>43500.1</v>
+        <v>43833.2</v>
       </c>
       <c r="C44" t="n">
-        <v>43797.5</v>
+        <v>43930.4</v>
       </c>
       <c r="D44" t="n">
-        <v>43451</v>
+        <v>43820.1</v>
       </c>
       <c r="E44" t="n">
-        <v>43708</v>
+        <v>43893.6</v>
       </c>
       <c r="F44" t="n">
-        <v>154.03462214</v>
+        <v>49.02962777</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45297.33333333334</v>
+        <v>45297.66666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>43708</v>
+        <v>43896.9</v>
       </c>
       <c r="C45" t="n">
-        <v>43760.6</v>
+        <v>43993</v>
       </c>
       <c r="D45" t="n">
-        <v>43611.7</v>
+        <v>43864.9</v>
       </c>
       <c r="E45" t="n">
-        <v>43740.1</v>
+        <v>43901</v>
       </c>
       <c r="F45" t="n">
-        <v>47.86140058</v>
+        <v>20.55713933</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45297.375</v>
+        <v>45297.70833333334</v>
       </c>
       <c r="B46" t="n">
-        <v>43740.1</v>
+        <v>43900.3</v>
       </c>
       <c r="C46" t="n">
-        <v>43779.1</v>
+        <v>44026.7</v>
       </c>
       <c r="D46" t="n">
-        <v>43666.1</v>
+        <v>43889.1</v>
       </c>
       <c r="E46" t="n">
-        <v>43666.2</v>
+        <v>43998.8</v>
       </c>
       <c r="F46" t="n">
-        <v>16.0618764</v>
+        <v>24.48935716</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45297.41666666666</v>
+        <v>45297.75</v>
       </c>
       <c r="B47" t="n">
-        <v>43666.2</v>
+        <v>43998.9</v>
       </c>
       <c r="C47" t="n">
-        <v>43783.5</v>
+        <v>44161.2</v>
       </c>
       <c r="D47" t="n">
-        <v>43614.8</v>
+        <v>43923.6</v>
       </c>
       <c r="E47" t="n">
-        <v>43720.3</v>
+        <v>44028</v>
       </c>
       <c r="F47" t="n">
-        <v>11.45600541</v>
+        <v>62.03247313</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45297.45833333334</v>
+        <v>45297.79166666666</v>
       </c>
       <c r="B48" t="n">
-        <v>43720.3</v>
+        <v>44028.1</v>
       </c>
       <c r="C48" t="n">
-        <v>43728</v>
+        <v>44031.4</v>
       </c>
       <c r="D48" t="n">
-        <v>43649.1</v>
+        <v>43900</v>
       </c>
       <c r="E48" t="n">
-        <v>43683.5</v>
+        <v>43938.1</v>
       </c>
       <c r="F48" t="n">
-        <v>11.97326096</v>
+        <v>38.10721875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45297.5</v>
+        <v>45297.83333333334</v>
       </c>
       <c r="B49" t="n">
-        <v>43683.6</v>
+        <v>43938.1</v>
       </c>
       <c r="C49" t="n">
-        <v>43750.6</v>
+        <v>44000</v>
       </c>
       <c r="D49" t="n">
-        <v>43605</v>
+        <v>43753.3</v>
       </c>
       <c r="E49" t="n">
-        <v>43636.5</v>
+        <v>43865.2</v>
       </c>
       <c r="F49" t="n">
-        <v>20.48705977</v>
+        <v>149.99134233</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45297.54166666666</v>
+        <v>45297.875</v>
       </c>
       <c r="B50" t="n">
-        <v>43634.3</v>
+        <v>43865.2</v>
       </c>
       <c r="C50" t="n">
-        <v>43767.6</v>
+        <v>43955.4</v>
       </c>
       <c r="D50" t="n">
-        <v>43605</v>
+        <v>43774.6</v>
       </c>
       <c r="E50" t="n">
-        <v>43737.5</v>
+        <v>43925.8</v>
       </c>
       <c r="F50" t="n">
-        <v>19.53731728</v>
+        <v>32.28915733</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45297.58333333334</v>
+        <v>45297.91666666666</v>
       </c>
       <c r="B51" t="n">
-        <v>43737.6</v>
+        <v>43925.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43947.7</v>
+        <v>43954.9</v>
       </c>
       <c r="D51" t="n">
-        <v>43737.5</v>
+        <v>43800</v>
       </c>
       <c r="E51" t="n">
-        <v>43833.2</v>
+        <v>43902.7</v>
       </c>
       <c r="F51" t="n">
-        <v>24.5217373</v>
+        <v>24.33956448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45297.625</v>
+        <v>45297.95833333334</v>
       </c>
       <c r="B52" t="n">
-        <v>43833.2</v>
+        <v>43897.9</v>
       </c>
       <c r="C52" t="n">
-        <v>43930.4</v>
+        <v>43963.4</v>
       </c>
       <c r="D52" t="n">
-        <v>43820.1</v>
+        <v>43800</v>
       </c>
       <c r="E52" t="n">
-        <v>43893.6</v>
+        <v>43960</v>
       </c>
       <c r="F52" t="n">
-        <v>49.02962777</v>
+        <v>49.90599412</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45297.66666666666</v>
+        <v>45298</v>
       </c>
       <c r="B53" t="n">
-        <v>43896.9</v>
+        <v>43960</v>
       </c>
       <c r="C53" t="n">
-        <v>43993</v>
+        <v>44270.3</v>
       </c>
       <c r="D53" t="n">
-        <v>43864.9</v>
+        <v>43960</v>
       </c>
       <c r="E53" t="n">
-        <v>43901</v>
+        <v>44147.9</v>
       </c>
       <c r="F53" t="n">
-        <v>20.55713933</v>
+        <v>66.19831537</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45297.70833333334</v>
+        <v>45298.04166666666</v>
       </c>
       <c r="B54" t="n">
-        <v>43900.3</v>
+        <v>44160.9</v>
       </c>
       <c r="C54" t="n">
-        <v>44026.7</v>
+        <v>44179.1</v>
       </c>
       <c r="D54" t="n">
-        <v>43889.1</v>
+        <v>44000.4</v>
       </c>
       <c r="E54" t="n">
-        <v>43998.8</v>
+        <v>44000.5</v>
       </c>
       <c r="F54" t="n">
-        <v>24.48935716</v>
+        <v>39.47891062</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45297.75</v>
+        <v>45298.08333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>43998.9</v>
+        <v>44000.4</v>
       </c>
       <c r="C55" t="n">
-        <v>44161.2</v>
+        <v>44100</v>
       </c>
       <c r="D55" t="n">
-        <v>43923.6</v>
+        <v>43900.1</v>
       </c>
       <c r="E55" t="n">
-        <v>44028</v>
+        <v>43958.9</v>
       </c>
       <c r="F55" t="n">
-        <v>62.03247313</v>
+        <v>25.02928452</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45297.79166666666</v>
+        <v>45298.125</v>
       </c>
       <c r="B56" t="n">
-        <v>44028.1</v>
+        <v>43958.9</v>
       </c>
       <c r="C56" t="n">
-        <v>44031.4</v>
+        <v>44053.6</v>
       </c>
       <c r="D56" t="n">
-        <v>43900</v>
+        <v>43942.4</v>
       </c>
       <c r="E56" t="n">
-        <v>43938.1</v>
+        <v>43970.5</v>
       </c>
       <c r="F56" t="n">
-        <v>38.10721875</v>
+        <v>13.25409606</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45297.83333333334</v>
+        <v>45298.16666666666</v>
       </c>
       <c r="B57" t="n">
-        <v>43938.1</v>
+        <v>43970.6</v>
       </c>
       <c r="C57" t="n">
-        <v>44000</v>
+        <v>44059.7</v>
       </c>
       <c r="D57" t="n">
-        <v>43753.3</v>
+        <v>43919.2</v>
       </c>
       <c r="E57" t="n">
-        <v>43865.2</v>
+        <v>44023.3</v>
       </c>
       <c r="F57" t="n">
-        <v>149.99134233</v>
+        <v>32.33356791</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45297.875</v>
+        <v>45298.20833333334</v>
       </c>
       <c r="B58" t="n">
-        <v>43865.2</v>
+        <v>44023.4</v>
       </c>
       <c r="C58" t="n">
-        <v>43955.4</v>
+        <v>44085.9</v>
       </c>
       <c r="D58" t="n">
-        <v>43774.6</v>
+        <v>43900.1</v>
       </c>
       <c r="E58" t="n">
-        <v>43925.8</v>
+        <v>43900.2</v>
       </c>
       <c r="F58" t="n">
-        <v>32.28915733</v>
+        <v>24.49636654</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45297.91666666666</v>
+        <v>45298.25</v>
       </c>
       <c r="B59" t="n">
-        <v>43925.7</v>
+        <v>43900.2</v>
       </c>
       <c r="C59" t="n">
-        <v>43954.9</v>
+        <v>44100</v>
       </c>
       <c r="D59" t="n">
-        <v>43800</v>
+        <v>43900.1</v>
       </c>
       <c r="E59" t="n">
-        <v>43902.7</v>
+        <v>44050.3</v>
       </c>
       <c r="F59" t="n">
-        <v>24.33956448</v>
+        <v>13.57714689</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45297.95833333334</v>
+        <v>45298.29166666666</v>
       </c>
       <c r="B60" t="n">
-        <v>43897.9</v>
+        <v>44050.3</v>
       </c>
       <c r="C60" t="n">
-        <v>43963.4</v>
+        <v>44110.4</v>
       </c>
       <c r="D60" t="n">
-        <v>43800</v>
+        <v>44028.4</v>
       </c>
       <c r="E60" t="n">
-        <v>43960</v>
+        <v>44105.6</v>
       </c>
       <c r="F60" t="n">
-        <v>49.90599412</v>
+        <v>36.96326072</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45298</v>
+        <v>45298.33333333334</v>
       </c>
       <c r="B61" t="n">
-        <v>43960</v>
+        <v>44105.6</v>
       </c>
       <c r="C61" t="n">
-        <v>44270.3</v>
+        <v>44189.5</v>
       </c>
       <c r="D61" t="n">
-        <v>43960</v>
+        <v>44050</v>
       </c>
       <c r="E61" t="n">
-        <v>44147.9</v>
+        <v>44050.1</v>
       </c>
       <c r="F61" t="n">
-        <v>66.19831537</v>
+        <v>65.0993313</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45298.04166666666</v>
+        <v>45298.375</v>
       </c>
       <c r="B62" t="n">
-        <v>44160.9</v>
+        <v>44050</v>
       </c>
       <c r="C62" t="n">
-        <v>44179.1</v>
+        <v>44082.4</v>
       </c>
       <c r="D62" t="n">
-        <v>44000.4</v>
+        <v>43936.8</v>
       </c>
       <c r="E62" t="n">
-        <v>44000.5</v>
+        <v>43951.2</v>
       </c>
       <c r="F62" t="n">
-        <v>39.47891062</v>
+        <v>36.0485236</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45298.08333333334</v>
+        <v>45298.41666666666</v>
       </c>
       <c r="B63" t="n">
-        <v>44000.4</v>
+        <v>43955.8</v>
       </c>
       <c r="C63" t="n">
-        <v>44100</v>
+        <v>43992.9</v>
       </c>
       <c r="D63" t="n">
-        <v>43900.1</v>
+        <v>43935.3</v>
       </c>
       <c r="E63" t="n">
-        <v>43958.9</v>
+        <v>43980</v>
       </c>
       <c r="F63" t="n">
-        <v>25.02928452</v>
+        <v>17.69168738</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45298.125</v>
+        <v>45298.45833333334</v>
       </c>
       <c r="B64" t="n">
-        <v>43958.9</v>
+        <v>43980</v>
       </c>
       <c r="C64" t="n">
-        <v>44053.6</v>
+        <v>44116.9</v>
       </c>
       <c r="D64" t="n">
-        <v>43942.4</v>
+        <v>43979.9</v>
       </c>
       <c r="E64" t="n">
-        <v>43970.5</v>
+        <v>44077.9</v>
       </c>
       <c r="F64" t="n">
-        <v>13.25409606</v>
+        <v>31.50453043</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45298.16666666666</v>
+        <v>45298.5</v>
       </c>
       <c r="B65" t="n">
-        <v>43970.6</v>
+        <v>44075.5</v>
       </c>
       <c r="C65" t="n">
-        <v>44059.7</v>
+        <v>44150.1</v>
       </c>
       <c r="D65" t="n">
-        <v>43919.2</v>
+        <v>44000</v>
       </c>
       <c r="E65" t="n">
-        <v>44023.3</v>
+        <v>44114.5</v>
       </c>
       <c r="F65" t="n">
-        <v>32.33356791</v>
+        <v>35.26080843</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45298.20833333334</v>
+        <v>45298.54166666666</v>
       </c>
       <c r="B66" t="n">
-        <v>44023.4</v>
+        <v>44112.6</v>
       </c>
       <c r="C66" t="n">
-        <v>44085.9</v>
+        <v>44441.2</v>
       </c>
       <c r="D66" t="n">
-        <v>43900.1</v>
+        <v>44112.6</v>
       </c>
       <c r="E66" t="n">
-        <v>43900.2</v>
+        <v>44403.4</v>
       </c>
       <c r="F66" t="n">
-        <v>24.49636654</v>
+        <v>255.19017896</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45298.25</v>
+        <v>45298.58333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>43900.2</v>
+        <v>44403.4</v>
       </c>
       <c r="C67" t="n">
-        <v>44100</v>
+        <v>44483.9</v>
       </c>
       <c r="D67" t="n">
-        <v>43900.1</v>
+        <v>44324.9</v>
       </c>
       <c r="E67" t="n">
-        <v>44050.3</v>
+        <v>44389.5</v>
       </c>
       <c r="F67" t="n">
-        <v>13.57714689</v>
+        <v>36.66083146</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45298.29166666666</v>
+        <v>45298.625</v>
       </c>
       <c r="B68" t="n">
-        <v>44050.3</v>
+        <v>44389.5</v>
       </c>
       <c r="C68" t="n">
-        <v>44110.4</v>
+        <v>44443.3</v>
       </c>
       <c r="D68" t="n">
-        <v>44028.4</v>
+        <v>43963.1</v>
       </c>
       <c r="E68" t="n">
-        <v>44105.6</v>
+        <v>44094.1</v>
       </c>
       <c r="F68" t="n">
-        <v>36.96326072</v>
+        <v>115.80986206</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45298.33333333334</v>
+        <v>45298.66666666666</v>
       </c>
       <c r="B69" t="n">
-        <v>44105.6</v>
+        <v>44094.1</v>
       </c>
       <c r="C69" t="n">
-        <v>44189.5</v>
+        <v>44190.9</v>
       </c>
       <c r="D69" t="n">
-        <v>44050</v>
+        <v>43875.2</v>
       </c>
       <c r="E69" t="n">
-        <v>44050.1</v>
+        <v>43973.2</v>
       </c>
       <c r="F69" t="n">
-        <v>65.0993313</v>
+        <v>55.64757521</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45298.375</v>
+        <v>45298.70833333334</v>
       </c>
       <c r="B70" t="n">
-        <v>44050</v>
+        <v>43973.3</v>
       </c>
       <c r="C70" t="n">
-        <v>44082.4</v>
+        <v>44080</v>
       </c>
       <c r="D70" t="n">
-        <v>43936.8</v>
+        <v>43758.1</v>
       </c>
       <c r="E70" t="n">
-        <v>43951.2</v>
+        <v>44080</v>
       </c>
       <c r="F70" t="n">
-        <v>36.0485236</v>
+        <v>123.23900082</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45298.41666666666</v>
+        <v>45298.75</v>
       </c>
       <c r="B71" t="n">
-        <v>43955.8</v>
+        <v>44080</v>
       </c>
       <c r="C71" t="n">
-        <v>43992.9</v>
+        <v>44151</v>
       </c>
       <c r="D71" t="n">
-        <v>43935.3</v>
+        <v>44080</v>
       </c>
       <c r="E71" t="n">
-        <v>43980</v>
+        <v>44147</v>
       </c>
       <c r="F71" t="n">
-        <v>17.69168738</v>
+        <v>50.71963942</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45298.45833333334</v>
+        <v>45298.79166666666</v>
       </c>
       <c r="B72" t="n">
-        <v>43980</v>
+        <v>44147</v>
       </c>
       <c r="C72" t="n">
-        <v>44116.9</v>
+        <v>44259.3</v>
       </c>
       <c r="D72" t="n">
-        <v>43979.9</v>
+        <v>44080</v>
       </c>
       <c r="E72" t="n">
-        <v>44077.9</v>
+        <v>44258.6</v>
       </c>
       <c r="F72" t="n">
-        <v>31.50453043</v>
+        <v>74.23477466</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45298.5</v>
+        <v>45298.83333333334</v>
       </c>
       <c r="B73" t="n">
-        <v>44075.5</v>
+        <v>44258.6</v>
       </c>
       <c r="C73" t="n">
-        <v>44150.1</v>
+        <v>44275.8</v>
       </c>
       <c r="D73" t="n">
-        <v>44000</v>
+        <v>44157.5</v>
       </c>
       <c r="E73" t="n">
-        <v>44114.5</v>
+        <v>44176.2</v>
       </c>
       <c r="F73" t="n">
-        <v>35.26080843</v>
+        <v>60.68440665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45298.54166666666</v>
+        <v>45298.875</v>
       </c>
       <c r="B74" t="n">
-        <v>44112.6</v>
+        <v>44176.2</v>
       </c>
       <c r="C74" t="n">
-        <v>44441.2</v>
+        <v>44251.3</v>
       </c>
       <c r="D74" t="n">
-        <v>44112.6</v>
+        <v>44162.9</v>
       </c>
       <c r="E74" t="n">
-        <v>44403.4</v>
+        <v>44247.6</v>
       </c>
       <c r="F74" t="n">
-        <v>255.19017896</v>
+        <v>56.08312773</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45298.58333333334</v>
+        <v>45298.91666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>44403.4</v>
+        <v>44247.6</v>
       </c>
       <c r="C75" t="n">
-        <v>44483.9</v>
+        <v>44247.6</v>
       </c>
       <c r="D75" t="n">
-        <v>44324.9</v>
+        <v>43820</v>
       </c>
       <c r="E75" t="n">
-        <v>44389.5</v>
+        <v>43885.2</v>
       </c>
       <c r="F75" t="n">
-        <v>36.66083146</v>
+        <v>153.41315653</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45298.625</v>
+        <v>45298.95833333334</v>
       </c>
       <c r="B76" t="n">
-        <v>44389.5</v>
+        <v>43885.2</v>
       </c>
       <c r="C76" t="n">
-        <v>44443.3</v>
+        <v>44025.5</v>
       </c>
       <c r="D76" t="n">
-        <v>43963.1</v>
+        <v>43648.1</v>
       </c>
       <c r="E76" t="n">
-        <v>44094.1</v>
+        <v>43915.9</v>
       </c>
       <c r="F76" t="n">
-        <v>115.80986206</v>
+        <v>129.17824827</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45298.66666666666</v>
+        <v>45299</v>
       </c>
       <c r="B77" t="n">
-        <v>44094.1</v>
+        <v>43915.9</v>
       </c>
       <c r="C77" t="n">
-        <v>44190.9</v>
+        <v>43960</v>
       </c>
       <c r="D77" t="n">
-        <v>43875.2</v>
+        <v>43653.2</v>
       </c>
       <c r="E77" t="n">
-        <v>43973.2</v>
+        <v>43653.2</v>
       </c>
       <c r="F77" t="n">
-        <v>55.64757521</v>
+        <v>131.56970519</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45298.70833333334</v>
+        <v>45299.04166666666</v>
       </c>
       <c r="B78" t="n">
-        <v>43973.3</v>
+        <v>43653.2</v>
       </c>
       <c r="C78" t="n">
-        <v>44080</v>
+        <v>43840</v>
       </c>
       <c r="D78" t="n">
-        <v>43758.1</v>
+        <v>43650.1</v>
       </c>
       <c r="E78" t="n">
-        <v>44080</v>
+        <v>43746.9</v>
       </c>
       <c r="F78" t="n">
-        <v>123.23900082</v>
+        <v>232.39560867</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45298.75</v>
+        <v>45299.08333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>44080</v>
+        <v>43746.9</v>
       </c>
       <c r="C79" t="n">
-        <v>44151</v>
+        <v>43824</v>
       </c>
       <c r="D79" t="n">
-        <v>44080</v>
+        <v>43236.2</v>
       </c>
       <c r="E79" t="n">
-        <v>44147</v>
+        <v>43367.2</v>
       </c>
       <c r="F79" t="n">
-        <v>50.71963942</v>
+        <v>126.47384062</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45298.79166666666</v>
+        <v>45299.125</v>
       </c>
       <c r="B80" t="n">
-        <v>44147</v>
+        <v>43367.1</v>
       </c>
       <c r="C80" t="n">
-        <v>44259.3</v>
+        <v>43569.5</v>
       </c>
       <c r="D80" t="n">
-        <v>44080</v>
+        <v>43250.1</v>
       </c>
       <c r="E80" t="n">
-        <v>44258.6</v>
+        <v>43540</v>
       </c>
       <c r="F80" t="n">
-        <v>74.23477466</v>
+        <v>89.20071154999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45298.83333333334</v>
+        <v>45299.16666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>44258.6</v>
+        <v>43540</v>
       </c>
       <c r="C81" t="n">
-        <v>44275.8</v>
+        <v>43606.1</v>
       </c>
       <c r="D81" t="n">
-        <v>44157.5</v>
+        <v>43306.9</v>
       </c>
       <c r="E81" t="n">
-        <v>44176.2</v>
+        <v>43606.1</v>
       </c>
       <c r="F81" t="n">
-        <v>60.68440665</v>
+        <v>432.6973177</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45298.875</v>
+        <v>45299.20833333334</v>
       </c>
       <c r="B82" t="n">
-        <v>44176.2</v>
+        <v>43606.1</v>
       </c>
       <c r="C82" t="n">
-        <v>44251.3</v>
+        <v>43637.5</v>
       </c>
       <c r="D82" t="n">
-        <v>44162.9</v>
+        <v>43208.5</v>
       </c>
       <c r="E82" t="n">
-        <v>44247.6</v>
+        <v>43620</v>
       </c>
       <c r="F82" t="n">
-        <v>56.08312773</v>
+        <v>493.50847204</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45298.91666666666</v>
+        <v>45299.25</v>
       </c>
       <c r="B83" t="n">
-        <v>44247.6</v>
+        <v>43619.9</v>
       </c>
       <c r="C83" t="n">
-        <v>44247.6</v>
+        <v>44224</v>
       </c>
       <c r="D83" t="n">
-        <v>43820</v>
+        <v>43600</v>
       </c>
       <c r="E83" t="n">
-        <v>43885.2</v>
+        <v>43910.5</v>
       </c>
       <c r="F83" t="n">
-        <v>153.41315653</v>
+        <v>245.20925635</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45298.95833333334</v>
+        <v>45299.29166666666</v>
       </c>
       <c r="B84" t="n">
-        <v>43885.2</v>
+        <v>43915</v>
       </c>
       <c r="C84" t="n">
-        <v>44025.5</v>
+        <v>44050</v>
       </c>
       <c r="D84" t="n">
-        <v>43648.1</v>
+        <v>43760</v>
       </c>
       <c r="E84" t="n">
-        <v>43915.9</v>
+        <v>43975</v>
       </c>
       <c r="F84" t="n">
-        <v>129.17824827</v>
+        <v>113.83243087</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45299</v>
+        <v>45299.33333333334</v>
       </c>
       <c r="B85" t="n">
-        <v>43915.9</v>
+        <v>43975</v>
       </c>
       <c r="C85" t="n">
-        <v>43960</v>
+        <v>43975</v>
       </c>
       <c r="D85" t="n">
-        <v>43653.2</v>
+        <v>43974.9</v>
       </c>
       <c r="E85" t="n">
-        <v>43653.2</v>
+        <v>43975</v>
       </c>
       <c r="F85" t="n">
-        <v>131.56970519</v>
+        <v>0.00823992</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45299.04166666666</v>
+        <v>45299.375</v>
       </c>
       <c r="B86" t="n">
-        <v>43653.2</v>
+        <v>43975</v>
       </c>
       <c r="C86" t="n">
-        <v>43840</v>
+        <v>43975</v>
       </c>
       <c r="D86" t="n">
-        <v>43650.1</v>
+        <v>43975</v>
       </c>
       <c r="E86" t="n">
-        <v>43746.9</v>
+        <v>43975</v>
       </c>
       <c r="F86" t="n">
-        <v>232.39560867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45299.08333333334</v>
+        <v>45299.41666666666</v>
       </c>
       <c r="B87" t="n">
-        <v>43746.9</v>
+        <v>43975</v>
       </c>
       <c r="C87" t="n">
-        <v>43824</v>
+        <v>43975</v>
       </c>
       <c r="D87" t="n">
-        <v>43236.2</v>
+        <v>43975</v>
       </c>
       <c r="E87" t="n">
-        <v>43367.2</v>
+        <v>43975</v>
       </c>
       <c r="F87" t="n">
-        <v>126.47384062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45299.125</v>
+        <v>45299.45833333334</v>
       </c>
       <c r="B88" t="n">
-        <v>43367.1</v>
+        <v>43937.6</v>
       </c>
       <c r="C88" t="n">
-        <v>43569.5</v>
+        <v>44750</v>
       </c>
       <c r="D88" t="n">
-        <v>43250.1</v>
+        <v>43937.6</v>
       </c>
       <c r="E88" t="n">
-        <v>43540</v>
+        <v>44673.4</v>
       </c>
       <c r="F88" t="n">
-        <v>89.20071154999999</v>
+        <v>307.96625661</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45299.16666666666</v>
+        <v>45299.5</v>
       </c>
       <c r="B89" t="n">
-        <v>43540</v>
+        <v>44675.1</v>
       </c>
       <c r="C89" t="n">
-        <v>43606.1</v>
+        <v>45280</v>
       </c>
       <c r="D89" t="n">
-        <v>43306.9</v>
+        <v>44232.7</v>
       </c>
       <c r="E89" t="n">
-        <v>43606.1</v>
+        <v>45126.8</v>
       </c>
       <c r="F89" t="n">
-        <v>432.6973177</v>
+        <v>825.91874033</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45299.20833333334</v>
+        <v>45299.54166666666</v>
       </c>
       <c r="B90" t="n">
-        <v>43606.1</v>
+        <v>45135</v>
       </c>
       <c r="C90" t="n">
-        <v>43637.5</v>
+        <v>45192.6</v>
       </c>
       <c r="D90" t="n">
-        <v>43208.5</v>
+        <v>44850.6</v>
       </c>
       <c r="E90" t="n">
-        <v>43620</v>
+        <v>44948.5</v>
       </c>
       <c r="F90" t="n">
-        <v>493.50847204</v>
+        <v>198.38942111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45299.25</v>
+        <v>45299.58333333334</v>
       </c>
       <c r="B91" t="n">
-        <v>43619.9</v>
+        <v>44948.5</v>
       </c>
       <c r="C91" t="n">
-        <v>44224</v>
+        <v>45100</v>
       </c>
       <c r="D91" t="n">
-        <v>43600</v>
+        <v>44804</v>
       </c>
       <c r="E91" t="n">
-        <v>43910.5</v>
+        <v>44842.5</v>
       </c>
       <c r="F91" t="n">
-        <v>245.20925635</v>
+        <v>135.91918762</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45299.29166666666</v>
+        <v>45299.625</v>
       </c>
       <c r="B92" t="n">
-        <v>43915</v>
+        <v>44826</v>
       </c>
       <c r="C92" t="n">
-        <v>44050</v>
+        <v>45338.7</v>
       </c>
       <c r="D92" t="n">
-        <v>43760</v>
+        <v>44750.1</v>
       </c>
       <c r="E92" t="n">
-        <v>43975</v>
+        <v>45042.1</v>
       </c>
       <c r="F92" t="n">
-        <v>113.83243087</v>
+        <v>227.48795682</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45299.33333333334</v>
+        <v>45299.66666666666</v>
       </c>
       <c r="B93" t="n">
-        <v>43975</v>
+        <v>45015</v>
       </c>
       <c r="C93" t="n">
-        <v>43975</v>
+        <v>45171.9</v>
       </c>
       <c r="D93" t="n">
-        <v>43974.9</v>
+        <v>44858</v>
       </c>
       <c r="E93" t="n">
-        <v>43975</v>
+        <v>44980.5</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00823992</v>
+        <v>158.19241658</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45299.375</v>
+        <v>45299.70833333334</v>
       </c>
       <c r="B94" t="n">
-        <v>43975</v>
+        <v>44980.5</v>
       </c>
       <c r="C94" t="n">
-        <v>43975</v>
+        <v>45714.7</v>
       </c>
       <c r="D94" t="n">
-        <v>43975</v>
+        <v>44978.3</v>
       </c>
       <c r="E94" t="n">
-        <v>43975</v>
+        <v>45693.7</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>485.20778823</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45299.41666666666</v>
+        <v>45299.75</v>
       </c>
       <c r="B95" t="n">
-        <v>43975</v>
+        <v>45692.1</v>
       </c>
       <c r="C95" t="n">
-        <v>43975</v>
+        <v>47000</v>
       </c>
       <c r="D95" t="n">
-        <v>43975</v>
+        <v>45692.1</v>
       </c>
       <c r="E95" t="n">
-        <v>43975</v>
+        <v>47000</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1195.96175905</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45299.45833333334</v>
+        <v>45299.79166666666</v>
       </c>
       <c r="B96" t="n">
-        <v>43937.6</v>
+        <v>47000</v>
       </c>
       <c r="C96" t="n">
-        <v>44750</v>
+        <v>47306.6</v>
       </c>
       <c r="D96" t="n">
-        <v>43937.6</v>
+        <v>46604.7</v>
       </c>
       <c r="E96" t="n">
-        <v>44673.4</v>
+        <v>47039.9</v>
       </c>
       <c r="F96" t="n">
-        <v>307.96625661</v>
+        <v>790.6250398</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45299.5</v>
+        <v>45299.83333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>44675.1</v>
+        <v>47039.9</v>
       </c>
       <c r="C97" t="n">
-        <v>45280</v>
+        <v>47197.4</v>
       </c>
       <c r="D97" t="n">
-        <v>44232.7</v>
+        <v>46735.3</v>
       </c>
       <c r="E97" t="n">
-        <v>45126.8</v>
+        <v>46799.1</v>
       </c>
       <c r="F97" t="n">
-        <v>825.91874033</v>
+        <v>268.07700056</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45299.54166666666</v>
+        <v>45299.875</v>
       </c>
       <c r="B98" t="n">
-        <v>45135</v>
+        <v>46799.1</v>
       </c>
       <c r="C98" t="n">
-        <v>45192.6</v>
+        <v>47224</v>
       </c>
       <c r="D98" t="n">
-        <v>44850.6</v>
+        <v>46715.6</v>
       </c>
       <c r="E98" t="n">
-        <v>44948.5</v>
+        <v>47116.2</v>
       </c>
       <c r="F98" t="n">
-        <v>198.38942111</v>
+        <v>161.94372923</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45299.58333333334</v>
+        <v>45299.91666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>44948.5</v>
+        <v>47116.3</v>
       </c>
       <c r="C99" t="n">
-        <v>45100</v>
+        <v>47150</v>
       </c>
       <c r="D99" t="n">
-        <v>44804</v>
+        <v>46895.1</v>
       </c>
       <c r="E99" t="n">
-        <v>44842.5</v>
+        <v>47043.1</v>
       </c>
       <c r="F99" t="n">
-        <v>135.91918762</v>
+        <v>116.02344025</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45299.625</v>
+        <v>45299.95833333334</v>
       </c>
       <c r="B100" t="n">
-        <v>44826</v>
+        <v>47043.1</v>
       </c>
       <c r="C100" t="n">
-        <v>45338.7</v>
+        <v>47144.2</v>
       </c>
       <c r="D100" t="n">
-        <v>44750.1</v>
+        <v>46907</v>
       </c>
       <c r="E100" t="n">
-        <v>45042.1</v>
+        <v>46989.4</v>
       </c>
       <c r="F100" t="n">
-        <v>227.48795682</v>
+        <v>102.06590757</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45299.66666666666</v>
+        <v>45300</v>
       </c>
       <c r="B101" t="n">
-        <v>45015</v>
+        <v>46989.5</v>
       </c>
       <c r="C101" t="n">
-        <v>45171.9</v>
+        <v>47171.8</v>
       </c>
       <c r="D101" t="n">
-        <v>44858</v>
+        <v>45793.2</v>
       </c>
       <c r="E101" t="n">
-        <v>44980.5</v>
+        <v>46699.8</v>
       </c>
       <c r="F101" t="n">
-        <v>158.19241658</v>
+        <v>1306.39896589</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45299.70833333334</v>
+        <v>45300.04166666666</v>
       </c>
       <c r="B102" t="n">
-        <v>44980.5</v>
+        <v>46699.8</v>
       </c>
       <c r="C102" t="n">
-        <v>45714.7</v>
+        <v>46805.1</v>
       </c>
       <c r="D102" t="n">
-        <v>44978.3</v>
+        <v>46303</v>
       </c>
       <c r="E102" t="n">
-        <v>45693.7</v>
+        <v>46559.7</v>
       </c>
       <c r="F102" t="n">
-        <v>485.20778823</v>
+        <v>355.46056336</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45299.75</v>
+        <v>45300.08333333334</v>
       </c>
       <c r="B103" t="n">
-        <v>45692.1</v>
+        <v>46559.8</v>
       </c>
       <c r="C103" t="n">
-        <v>47000</v>
+        <v>46800</v>
       </c>
       <c r="D103" t="n">
-        <v>45692.1</v>
+        <v>46520</v>
       </c>
       <c r="E103" t="n">
-        <v>47000</v>
+        <v>46800</v>
       </c>
       <c r="F103" t="n">
-        <v>1195.96175905</v>
+        <v>149.21323458</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45299.79166666666</v>
+        <v>45300.125</v>
       </c>
       <c r="B104" t="n">
-        <v>47000</v>
+        <v>46800</v>
       </c>
       <c r="C104" t="n">
-        <v>47306.6</v>
+        <v>47002.3</v>
       </c>
       <c r="D104" t="n">
-        <v>46604.7</v>
+        <v>46794.3</v>
       </c>
       <c r="E104" t="n">
-        <v>47039.9</v>
+        <v>46967.4</v>
       </c>
       <c r="F104" t="n">
-        <v>790.6250398</v>
+        <v>356.19616932</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45299.83333333334</v>
+        <v>45300.16666666666</v>
       </c>
       <c r="B105" t="n">
-        <v>47039.9</v>
+        <v>46967.4</v>
       </c>
       <c r="C105" t="n">
-        <v>47197.4</v>
+        <v>46984.3</v>
       </c>
       <c r="D105" t="n">
-        <v>46735.3</v>
+        <v>46739</v>
       </c>
       <c r="E105" t="n">
-        <v>46799.1</v>
+        <v>46845</v>
       </c>
       <c r="F105" t="n">
-        <v>268.07700056</v>
+        <v>40.05266129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45299.875</v>
+        <v>45300.20833333334</v>
       </c>
       <c r="B106" t="n">
-        <v>46799.1</v>
+        <v>46845.1</v>
       </c>
       <c r="C106" t="n">
-        <v>47224</v>
+        <v>46845.1</v>
       </c>
       <c r="D106" t="n">
-        <v>46715.6</v>
+        <v>46604.1</v>
       </c>
       <c r="E106" t="n">
-        <v>47116.2</v>
+        <v>46734.6</v>
       </c>
       <c r="F106" t="n">
-        <v>161.94372923</v>
+        <v>204.60327498</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45299.91666666666</v>
+        <v>45300.25</v>
       </c>
       <c r="B107" t="n">
-        <v>47116.3</v>
+        <v>46734.6</v>
       </c>
       <c r="C107" t="n">
-        <v>47150</v>
+        <v>46871.7</v>
       </c>
       <c r="D107" t="n">
-        <v>46895.1</v>
+        <v>46694.1</v>
       </c>
       <c r="E107" t="n">
-        <v>47043.1</v>
+        <v>46824.8</v>
       </c>
       <c r="F107" t="n">
-        <v>116.02344025</v>
+        <v>127.24774026</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45299.95833333334</v>
+        <v>45300.29166666666</v>
       </c>
       <c r="B108" t="n">
-        <v>47043.1</v>
+        <v>46824.8</v>
       </c>
       <c r="C108" t="n">
-        <v>47144.2</v>
+        <v>46961.9</v>
       </c>
       <c r="D108" t="n">
-        <v>46907</v>
+        <v>46800</v>
       </c>
       <c r="E108" t="n">
-        <v>46989.4</v>
+        <v>46851.9</v>
       </c>
       <c r="F108" t="n">
-        <v>102.06590757</v>
+        <v>191.70374859</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45300</v>
+        <v>45300.33333333334</v>
       </c>
       <c r="B109" t="n">
-        <v>46989.5</v>
+        <v>46852</v>
       </c>
       <c r="C109" t="n">
-        <v>47171.8</v>
+        <v>46880.9</v>
       </c>
       <c r="D109" t="n">
-        <v>45793.2</v>
+        <v>46570.9</v>
       </c>
       <c r="E109" t="n">
-        <v>46699.8</v>
+        <v>46570.9</v>
       </c>
       <c r="F109" t="n">
-        <v>1306.39896589</v>
+        <v>141.2284174</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45300.04166666666</v>
+        <v>45300.375</v>
       </c>
       <c r="B110" t="n">
-        <v>46699.8</v>
+        <v>46571.9</v>
       </c>
       <c r="C110" t="n">
-        <v>46805.1</v>
+        <v>46699.9</v>
       </c>
       <c r="D110" t="n">
-        <v>46303</v>
+        <v>46359</v>
       </c>
       <c r="E110" t="n">
-        <v>46559.7</v>
+        <v>46510.6</v>
       </c>
       <c r="F110" t="n">
-        <v>355.46056336</v>
+        <v>196.89765749</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45300.08333333334</v>
+        <v>45300.41666666666</v>
       </c>
       <c r="B111" t="n">
-        <v>46559.8</v>
+        <v>46510.7</v>
       </c>
       <c r="C111" t="n">
-        <v>46800</v>
+        <v>46687.3</v>
       </c>
       <c r="D111" t="n">
-        <v>46520</v>
+        <v>46414.3</v>
       </c>
       <c r="E111" t="n">
-        <v>46800</v>
+        <v>46464.6</v>
       </c>
       <c r="F111" t="n">
-        <v>149.21323458</v>
+        <v>87.63148459999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45300.125</v>
+        <v>45300.45833333334</v>
       </c>
       <c r="B112" t="n">
-        <v>46800</v>
+        <v>46463.8</v>
       </c>
       <c r="C112" t="n">
-        <v>47002.3</v>
+        <v>46659</v>
       </c>
       <c r="D112" t="n">
-        <v>46794.3</v>
+        <v>46454.9</v>
       </c>
       <c r="E112" t="n">
-        <v>46967.4</v>
+        <v>46644.1</v>
       </c>
       <c r="F112" t="n">
-        <v>356.19616932</v>
+        <v>55.27882792</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45300.16666666666</v>
+        <v>45300.5</v>
       </c>
       <c r="B113" t="n">
-        <v>46967.4</v>
+        <v>46644</v>
       </c>
       <c r="C113" t="n">
-        <v>46984.3</v>
+        <v>47045.5</v>
       </c>
       <c r="D113" t="n">
-        <v>46739</v>
+        <v>44500</v>
       </c>
       <c r="E113" t="n">
-        <v>46845</v>
+        <v>46216</v>
       </c>
       <c r="F113" t="n">
-        <v>40.05266129</v>
+        <v>646.00027902</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45300.20833333334</v>
+        <v>45300.54166666666</v>
       </c>
       <c r="B114" t="n">
-        <v>46845.1</v>
+        <v>46198.9</v>
       </c>
       <c r="C114" t="n">
-        <v>46845.1</v>
+        <v>47039.9</v>
       </c>
       <c r="D114" t="n">
-        <v>46604.1</v>
+        <v>46122.9</v>
       </c>
       <c r="E114" t="n">
-        <v>46734.6</v>
+        <v>46859.2</v>
       </c>
       <c r="F114" t="n">
-        <v>204.60327498</v>
+        <v>286.85385536</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45300.25</v>
+        <v>45300.58333333334</v>
       </c>
       <c r="B115" t="n">
-        <v>46734.6</v>
+        <v>46872.8</v>
       </c>
       <c r="C115" t="n">
-        <v>46871.7</v>
+        <v>47018.4</v>
       </c>
       <c r="D115" t="n">
-        <v>46694.1</v>
+        <v>46550</v>
       </c>
       <c r="E115" t="n">
-        <v>46824.8</v>
+        <v>46600.1</v>
       </c>
       <c r="F115" t="n">
-        <v>127.24774026</v>
+        <v>149.60636076</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45300.29166666666</v>
+        <v>45300.625</v>
       </c>
       <c r="B116" t="n">
-        <v>46824.8</v>
+        <v>46600.1</v>
       </c>
       <c r="C116" t="n">
-        <v>46961.9</v>
+        <v>47000</v>
       </c>
       <c r="D116" t="n">
-        <v>46800</v>
+        <v>46500</v>
       </c>
       <c r="E116" t="n">
-        <v>46851.9</v>
+        <v>46867.8</v>
       </c>
       <c r="F116" t="n">
-        <v>191.70374859</v>
+        <v>227.37326052</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45300.33333333334</v>
+        <v>45300.66666666666</v>
       </c>
       <c r="B117" t="n">
-        <v>46852</v>
+        <v>46871.3</v>
       </c>
       <c r="C117" t="n">
-        <v>46880.9</v>
+        <v>46962.6</v>
       </c>
       <c r="D117" t="n">
-        <v>46570.9</v>
+        <v>46764.4</v>
       </c>
       <c r="E117" t="n">
-        <v>46570.9</v>
+        <v>46927.8</v>
       </c>
       <c r="F117" t="n">
-        <v>141.2284174</v>
+        <v>87.37187530999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45300.375</v>
+        <v>45300.70833333334</v>
       </c>
       <c r="B118" t="n">
-        <v>46571.9</v>
+        <v>46927.8</v>
       </c>
       <c r="C118" t="n">
-        <v>46699.9</v>
+        <v>46939.7</v>
       </c>
       <c r="D118" t="n">
-        <v>46359</v>
+        <v>46681.7</v>
       </c>
       <c r="E118" t="n">
-        <v>46510.6</v>
+        <v>46750.1</v>
       </c>
       <c r="F118" t="n">
-        <v>196.89765749</v>
+        <v>118.36492264</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45300.41666666666</v>
+        <v>45300.75</v>
       </c>
       <c r="B119" t="n">
-        <v>46510.7</v>
+        <v>46750.1</v>
       </c>
       <c r="C119" t="n">
-        <v>46687.3</v>
+        <v>46750.1</v>
       </c>
       <c r="D119" t="n">
-        <v>46414.3</v>
+        <v>46527.2</v>
       </c>
       <c r="E119" t="n">
-        <v>46464.6</v>
+        <v>46657.2</v>
       </c>
       <c r="F119" t="n">
-        <v>87.63148459999999</v>
+        <v>113.5347228</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45300.45833333334</v>
+        <v>45300.79166666666</v>
       </c>
       <c r="B120" t="n">
-        <v>46463.8</v>
+        <v>46657.2</v>
       </c>
       <c r="C120" t="n">
-        <v>46659</v>
+        <v>46898.3</v>
       </c>
       <c r="D120" t="n">
-        <v>46454.9</v>
+        <v>46616.1</v>
       </c>
       <c r="E120" t="n">
-        <v>46644.1</v>
+        <v>46894.6</v>
       </c>
       <c r="F120" t="n">
-        <v>55.27882792</v>
+        <v>64.19420418</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45300.5</v>
+        <v>45300.83333333334</v>
       </c>
       <c r="B121" t="n">
-        <v>46644</v>
+        <v>46894.6</v>
       </c>
       <c r="C121" t="n">
-        <v>47045.5</v>
+        <v>46928.8</v>
       </c>
       <c r="D121" t="n">
-        <v>44500</v>
+        <v>46637.5</v>
       </c>
       <c r="E121" t="n">
-        <v>46216</v>
+        <v>46662.2</v>
       </c>
       <c r="F121" t="n">
-        <v>646.00027902</v>
+        <v>62.01149885</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45300.54166666666</v>
+        <v>45300.875</v>
       </c>
       <c r="B122" t="n">
-        <v>46198.9</v>
+        <v>46674.5</v>
       </c>
       <c r="C122" t="n">
-        <v>47039.9</v>
+        <v>47988</v>
       </c>
       <c r="D122" t="n">
-        <v>46122.9</v>
+        <v>44828.1</v>
       </c>
       <c r="E122" t="n">
-        <v>46859.2</v>
+        <v>45414.4</v>
       </c>
       <c r="F122" t="n">
-        <v>286.85385536</v>
+        <v>2385.30183014</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45300.58333333334</v>
+        <v>45300.91666666666</v>
       </c>
       <c r="B123" t="n">
-        <v>46872.8</v>
+        <v>45426.1</v>
       </c>
       <c r="C123" t="n">
-        <v>47018.4</v>
+        <v>46282.1</v>
       </c>
       <c r="D123" t="n">
-        <v>46550</v>
+        <v>45312.3</v>
       </c>
       <c r="E123" t="n">
-        <v>46600.1</v>
+        <v>46275</v>
       </c>
       <c r="F123" t="n">
-        <v>149.60636076</v>
+        <v>833.45045672</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45300.625</v>
+        <v>45300.95833333334</v>
       </c>
       <c r="B124" t="n">
-        <v>46600.1</v>
+        <v>46275</v>
       </c>
       <c r="C124" t="n">
-        <v>47000</v>
+        <v>46300</v>
       </c>
       <c r="D124" t="n">
-        <v>46500</v>
+        <v>45942.7</v>
       </c>
       <c r="E124" t="n">
-        <v>46867.8</v>
+        <v>46128.7</v>
       </c>
       <c r="F124" t="n">
-        <v>227.37326052</v>
+        <v>297.36918521</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45300.66666666666</v>
+        <v>45301</v>
       </c>
       <c r="B125" t="n">
-        <v>46871.3</v>
+        <v>46128.7</v>
       </c>
       <c r="C125" t="n">
-        <v>46962.6</v>
+        <v>46247</v>
       </c>
       <c r="D125" t="n">
-        <v>46764.4</v>
+        <v>45818</v>
       </c>
       <c r="E125" t="n">
-        <v>46927.8</v>
+        <v>45862.3</v>
       </c>
       <c r="F125" t="n">
-        <v>87.37187530999999</v>
+        <v>450.88051205</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45300.70833333334</v>
+        <v>45301.04166666666</v>
       </c>
       <c r="B126" t="n">
-        <v>46927.8</v>
+        <v>45862.3</v>
       </c>
       <c r="C126" t="n">
-        <v>46939.7</v>
+        <v>45937.1</v>
       </c>
       <c r="D126" t="n">
-        <v>46681.7</v>
+        <v>45644.9</v>
       </c>
       <c r="E126" t="n">
-        <v>46750.1</v>
+        <v>45937</v>
       </c>
       <c r="F126" t="n">
-        <v>118.36492264</v>
+        <v>117.30406092</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45300.75</v>
+        <v>45301.08333333334</v>
       </c>
       <c r="B127" t="n">
-        <v>46750.1</v>
+        <v>45937</v>
       </c>
       <c r="C127" t="n">
-        <v>46750.1</v>
+        <v>46075.1</v>
       </c>
       <c r="D127" t="n">
-        <v>46527.2</v>
+        <v>45900</v>
       </c>
       <c r="E127" t="n">
-        <v>46657.2</v>
+        <v>45997.2</v>
       </c>
       <c r="F127" t="n">
-        <v>113.5347228</v>
+        <v>56.18069815</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45300.79166666666</v>
+        <v>45301.125</v>
       </c>
       <c r="B128" t="n">
-        <v>46657.2</v>
+        <v>45997.2</v>
       </c>
       <c r="C128" t="n">
-        <v>46898.3</v>
+        <v>46213.6</v>
       </c>
       <c r="D128" t="n">
-        <v>46616.1</v>
+        <v>45961.7</v>
       </c>
       <c r="E128" t="n">
-        <v>46894.6</v>
+        <v>46138.3</v>
       </c>
       <c r="F128" t="n">
-        <v>64.19420418</v>
+        <v>88.11618057</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45300.83333333334</v>
+        <v>45301.16666666666</v>
       </c>
       <c r="B129" t="n">
-        <v>46894.6</v>
+        <v>46138.3</v>
       </c>
       <c r="C129" t="n">
-        <v>46928.8</v>
+        <v>46194.9</v>
       </c>
       <c r="D129" t="n">
-        <v>46637.5</v>
+        <v>46001.2</v>
       </c>
       <c r="E129" t="n">
-        <v>46662.2</v>
+        <v>46001.3</v>
       </c>
       <c r="F129" t="n">
-        <v>62.01149885</v>
+        <v>44.2046652</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45300.875</v>
+        <v>45301.20833333334</v>
       </c>
       <c r="B130" t="n">
-        <v>46674.5</v>
+        <v>46001.2</v>
       </c>
       <c r="C130" t="n">
-        <v>47988</v>
+        <v>46043.7</v>
       </c>
       <c r="D130" t="n">
-        <v>44828.1</v>
+        <v>45950</v>
       </c>
       <c r="E130" t="n">
-        <v>45414.4</v>
+        <v>45987.6</v>
       </c>
       <c r="F130" t="n">
-        <v>2385.30183014</v>
+        <v>19.96836119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45300.91666666666</v>
+        <v>45301.25</v>
       </c>
       <c r="B131" t="n">
-        <v>45426.1</v>
+        <v>45987.6</v>
       </c>
       <c r="C131" t="n">
-        <v>46282.1</v>
+        <v>46073.2</v>
       </c>
       <c r="D131" t="n">
-        <v>45312.3</v>
+        <v>45931.7</v>
       </c>
       <c r="E131" t="n">
-        <v>46275</v>
+        <v>46036.9</v>
       </c>
       <c r="F131" t="n">
-        <v>833.45045672</v>
+        <v>41.27332792</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45300.95833333334</v>
+        <v>45301.29166666666</v>
       </c>
       <c r="B132" t="n">
-        <v>46275</v>
+        <v>46036.9</v>
       </c>
       <c r="C132" t="n">
-        <v>46300</v>
+        <v>46036.9</v>
       </c>
       <c r="D132" t="n">
-        <v>45942.7</v>
+        <v>45799.5</v>
       </c>
       <c r="E132" t="n">
-        <v>46128.7</v>
+        <v>45799.5</v>
       </c>
       <c r="F132" t="n">
-        <v>297.36918521</v>
+        <v>51.68478126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45301</v>
+        <v>45301.33333333334</v>
       </c>
       <c r="B133" t="n">
-        <v>46128.7</v>
+        <v>45799.6</v>
       </c>
       <c r="C133" t="n">
-        <v>46247</v>
+        <v>45868.6</v>
       </c>
       <c r="D133" t="n">
-        <v>45818</v>
+        <v>45363.6</v>
       </c>
       <c r="E133" t="n">
-        <v>45862.3</v>
+        <v>45372.2</v>
       </c>
       <c r="F133" t="n">
-        <v>450.88051205</v>
+        <v>152.35731039</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45301.04166666666</v>
+        <v>45301.375</v>
       </c>
       <c r="B134" t="n">
-        <v>45862.3</v>
+        <v>45362.2</v>
       </c>
       <c r="C134" t="n">
-        <v>45937.1</v>
+        <v>45698.1</v>
       </c>
       <c r="D134" t="n">
-        <v>45644.9</v>
+        <v>45362</v>
       </c>
       <c r="E134" t="n">
-        <v>45937</v>
+        <v>45660.7</v>
       </c>
       <c r="F134" t="n">
-        <v>117.30406092</v>
+        <v>160.64469144</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45301.08333333334</v>
+        <v>45301.41666666666</v>
       </c>
       <c r="B135" t="n">
-        <v>45937</v>
+        <v>45671.5</v>
       </c>
       <c r="C135" t="n">
-        <v>46075.1</v>
+        <v>45757.6</v>
       </c>
       <c r="D135" t="n">
-        <v>45900</v>
+        <v>45624.1</v>
       </c>
       <c r="E135" t="n">
-        <v>45997.2</v>
+        <v>45624.1</v>
       </c>
       <c r="F135" t="n">
-        <v>56.18069815</v>
+        <v>74.90019559</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45301.125</v>
+        <v>45301.45833333334</v>
       </c>
       <c r="B136" t="n">
-        <v>45997.2</v>
+        <v>45622.3</v>
       </c>
       <c r="C136" t="n">
-        <v>46213.6</v>
+        <v>45700</v>
       </c>
       <c r="D136" t="n">
-        <v>45961.7</v>
+        <v>45006</v>
       </c>
       <c r="E136" t="n">
-        <v>46138.3</v>
+        <v>45537.5</v>
       </c>
       <c r="F136" t="n">
-        <v>88.11618057</v>
+        <v>123.19212761</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45301.16666666666</v>
+        <v>45301.5</v>
       </c>
       <c r="B137" t="n">
-        <v>46138.3</v>
+        <v>45537.6</v>
       </c>
       <c r="C137" t="n">
-        <v>46194.9</v>
+        <v>45656.8</v>
       </c>
       <c r="D137" t="n">
-        <v>46001.2</v>
+        <v>44331.8</v>
       </c>
       <c r="E137" t="n">
-        <v>46001.3</v>
+        <v>44719.1</v>
       </c>
       <c r="F137" t="n">
-        <v>44.2046652</v>
+        <v>455.34505261</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45301.20833333334</v>
+        <v>45301.54166666666</v>
       </c>
       <c r="B138" t="n">
-        <v>46001.2</v>
+        <v>44719.1</v>
       </c>
       <c r="C138" t="n">
-        <v>46043.7</v>
+        <v>45373</v>
       </c>
       <c r="D138" t="n">
-        <v>45950</v>
+        <v>44344.2</v>
       </c>
       <c r="E138" t="n">
-        <v>45987.6</v>
+        <v>45150.1</v>
       </c>
       <c r="F138" t="n">
-        <v>19.96836119</v>
+        <v>469.3996996</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45301.25</v>
+        <v>45301.58333333334</v>
       </c>
       <c r="B139" t="n">
-        <v>45987.6</v>
+        <v>45150.1</v>
       </c>
       <c r="C139" t="n">
-        <v>46073.2</v>
+        <v>45431.1</v>
       </c>
       <c r="D139" t="n">
-        <v>45931.7</v>
+        <v>44874.7</v>
       </c>
       <c r="E139" t="n">
-        <v>46036.9</v>
+        <v>44874.8</v>
       </c>
       <c r="F139" t="n">
-        <v>41.27332792</v>
+        <v>160.2656932</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45301.29166666666</v>
+        <v>45301.625</v>
       </c>
       <c r="B140" t="n">
-        <v>46036.9</v>
+        <v>44874.8</v>
       </c>
       <c r="C140" t="n">
-        <v>46036.9</v>
+        <v>45603.2</v>
       </c>
       <c r="D140" t="n">
-        <v>45799.5</v>
+        <v>44850</v>
       </c>
       <c r="E140" t="n">
-        <v>45799.5</v>
+        <v>45550</v>
       </c>
       <c r="F140" t="n">
-        <v>51.68478126</v>
+        <v>272.21038817</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45301.33333333334</v>
+        <v>45301.66666666666</v>
       </c>
       <c r="B141" t="n">
-        <v>45799.6</v>
+        <v>45551.7</v>
       </c>
       <c r="C141" t="n">
-        <v>45868.6</v>
+        <v>45693.2</v>
       </c>
       <c r="D141" t="n">
-        <v>45363.6</v>
+        <v>45247.2</v>
       </c>
       <c r="E141" t="n">
-        <v>45372.2</v>
+        <v>45335.9</v>
       </c>
       <c r="F141" t="n">
-        <v>152.35731039</v>
+        <v>195.46892066</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45301.375</v>
+        <v>45301.70833333334</v>
       </c>
       <c r="B142" t="n">
-        <v>45362.2</v>
+        <v>45336</v>
       </c>
       <c r="C142" t="n">
-        <v>45698.1</v>
+        <v>46447</v>
       </c>
       <c r="D142" t="n">
-        <v>45362</v>
+        <v>45264.8</v>
       </c>
       <c r="E142" t="n">
-        <v>45660.7</v>
+        <v>46398.9</v>
       </c>
       <c r="F142" t="n">
-        <v>160.64469144</v>
+        <v>516.0793401</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45301.41666666666</v>
+        <v>45301.75</v>
       </c>
       <c r="B143" t="n">
-        <v>45671.5</v>
+        <v>46420</v>
       </c>
       <c r="C143" t="n">
-        <v>45757.6</v>
+        <v>46658.3</v>
       </c>
       <c r="D143" t="n">
-        <v>45624.1</v>
+        <v>46058</v>
       </c>
       <c r="E143" t="n">
-        <v>45624.1</v>
+        <v>46558</v>
       </c>
       <c r="F143" t="n">
-        <v>74.90019559</v>
+        <v>339.9193432</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45301.45833333334</v>
+        <v>45301.79166666666</v>
       </c>
       <c r="B144" t="n">
-        <v>45622.3</v>
+        <v>46558</v>
       </c>
       <c r="C144" t="n">
-        <v>45700</v>
+        <v>46763.2</v>
       </c>
       <c r="D144" t="n">
-        <v>45006</v>
+        <v>46132.7</v>
       </c>
       <c r="E144" t="n">
-        <v>45537.5</v>
+        <v>46513.9</v>
       </c>
       <c r="F144" t="n">
-        <v>123.19212761</v>
+        <v>744.94435807</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45301.5</v>
+        <v>45301.83333333334</v>
       </c>
       <c r="B145" t="n">
-        <v>45537.6</v>
+        <v>46514</v>
       </c>
       <c r="C145" t="n">
-        <v>45656.8</v>
+        <v>46520.2</v>
       </c>
       <c r="D145" t="n">
-        <v>44331.8</v>
+        <v>44911</v>
       </c>
       <c r="E145" t="n">
-        <v>44719.1</v>
+        <v>46180</v>
       </c>
       <c r="F145" t="n">
-        <v>455.34505261</v>
+        <v>906.30850384</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45301.54166666666</v>
+        <v>45301.875</v>
       </c>
       <c r="B146" t="n">
-        <v>44719.1</v>
+        <v>46154.6</v>
       </c>
       <c r="C146" t="n">
-        <v>45373</v>
+        <v>46299.7</v>
       </c>
       <c r="D146" t="n">
-        <v>44344.2</v>
+        <v>45143.9</v>
       </c>
       <c r="E146" t="n">
-        <v>45150.1</v>
+        <v>45938.2</v>
       </c>
       <c r="F146" t="n">
-        <v>469.3996996</v>
+        <v>950.65478541</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45301.58333333334</v>
+        <v>45301.91666666666</v>
       </c>
       <c r="B147" t="n">
-        <v>45150.1</v>
+        <v>45942.6</v>
       </c>
       <c r="C147" t="n">
-        <v>45431.1</v>
+        <v>46990.1</v>
       </c>
       <c r="D147" t="n">
-        <v>44874.7</v>
+        <v>45788</v>
       </c>
       <c r="E147" t="n">
-        <v>44874.8</v>
+        <v>46935.2</v>
       </c>
       <c r="F147" t="n">
-        <v>160.2656932</v>
+        <v>774.46154744</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45301.625</v>
+        <v>45301.95833333334</v>
       </c>
       <c r="B148" t="n">
-        <v>44874.8</v>
+        <v>46934.4</v>
       </c>
       <c r="C148" t="n">
-        <v>45603.2</v>
+        <v>47699.6</v>
       </c>
       <c r="D148" t="n">
-        <v>44850</v>
+        <v>46274.3</v>
       </c>
       <c r="E148" t="n">
-        <v>45550</v>
+        <v>46664.8</v>
       </c>
       <c r="F148" t="n">
-        <v>272.21038817</v>
+        <v>1122.31610027</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45301.66666666666</v>
+        <v>45302</v>
       </c>
       <c r="B149" t="n">
-        <v>45551.7</v>
+        <v>46678.1</v>
       </c>
       <c r="C149" t="n">
-        <v>45693.2</v>
+        <v>46732.2</v>
       </c>
       <c r="D149" t="n">
-        <v>45247.2</v>
+        <v>46314.9</v>
       </c>
       <c r="E149" t="n">
-        <v>45335.9</v>
+        <v>46716</v>
       </c>
       <c r="F149" t="n">
-        <v>195.46892066</v>
+        <v>204.09474129</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45301.70833333334</v>
+        <v>45302.04166666666</v>
       </c>
       <c r="B150" t="n">
-        <v>45336</v>
+        <v>46716</v>
       </c>
       <c r="C150" t="n">
-        <v>46447</v>
+        <v>46780</v>
       </c>
       <c r="D150" t="n">
-        <v>45264.8</v>
+        <v>46505.3</v>
       </c>
       <c r="E150" t="n">
-        <v>46398.9</v>
+        <v>46563.1</v>
       </c>
       <c r="F150" t="n">
-        <v>516.0793401</v>
+        <v>169.85287173</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45301.75</v>
+        <v>45302.08333333334</v>
       </c>
       <c r="B151" t="n">
-        <v>46420</v>
+        <v>46563.1</v>
       </c>
       <c r="C151" t="n">
-        <v>46658.3</v>
+        <v>46650.3</v>
       </c>
       <c r="D151" t="n">
-        <v>46058</v>
+        <v>46539.7</v>
       </c>
       <c r="E151" t="n">
-        <v>46558</v>
+        <v>46578.9</v>
       </c>
       <c r="F151" t="n">
-        <v>339.9193432</v>
+        <v>66.34803304</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45301.79166666666</v>
+        <v>45302.125</v>
       </c>
       <c r="B152" t="n">
-        <v>46558</v>
+        <v>46578.9</v>
       </c>
       <c r="C152" t="n">
-        <v>46763.2</v>
+        <v>46613.9</v>
       </c>
       <c r="D152" t="n">
-        <v>46132.7</v>
+        <v>46280</v>
       </c>
       <c r="E152" t="n">
-        <v>46513.9</v>
+        <v>46518.9</v>
       </c>
       <c r="F152" t="n">
-        <v>744.94435807</v>
+        <v>92.39540181</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45301.83333333334</v>
+        <v>45302.16666666666</v>
       </c>
       <c r="B153" t="n">
-        <v>46514</v>
+        <v>46519</v>
       </c>
       <c r="C153" t="n">
-        <v>46520.2</v>
+        <v>46519</v>
       </c>
       <c r="D153" t="n">
-        <v>44911</v>
+        <v>46369.2</v>
       </c>
       <c r="E153" t="n">
-        <v>46180</v>
+        <v>46446.1</v>
       </c>
       <c r="F153" t="n">
-        <v>906.30850384</v>
+        <v>80.7593607</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45301.875</v>
+        <v>45302.20833333334</v>
       </c>
       <c r="B154" t="n">
-        <v>46154.6</v>
+        <v>46446.1</v>
       </c>
       <c r="C154" t="n">
-        <v>46299.7</v>
+        <v>46446.1</v>
       </c>
       <c r="D154" t="n">
-        <v>45143.9</v>
+        <v>45932.5</v>
       </c>
       <c r="E154" t="n">
-        <v>45938.2</v>
+        <v>46102.7</v>
       </c>
       <c r="F154" t="n">
-        <v>950.65478541</v>
+        <v>184.81026417</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45301.91666666666</v>
+        <v>45302.25</v>
       </c>
       <c r="B155" t="n">
-        <v>45942.6</v>
+        <v>46102.7</v>
       </c>
       <c r="C155" t="n">
-        <v>46990.1</v>
+        <v>46107.2</v>
       </c>
       <c r="D155" t="n">
-        <v>45788</v>
+        <v>45676.6</v>
       </c>
       <c r="E155" t="n">
-        <v>46935.2</v>
+        <v>45928.4</v>
       </c>
       <c r="F155" t="n">
-        <v>774.46154744</v>
+        <v>336.4452402</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45301.95833333334</v>
+        <v>45302.29166666666</v>
       </c>
       <c r="B156" t="n">
-        <v>46934.4</v>
+        <v>45928.4</v>
       </c>
       <c r="C156" t="n">
-        <v>47699.6</v>
+        <v>46167</v>
       </c>
       <c r="D156" t="n">
-        <v>46274.3</v>
+        <v>45906.1</v>
       </c>
       <c r="E156" t="n">
-        <v>46664.8</v>
+        <v>46105.1</v>
       </c>
       <c r="F156" t="n">
-        <v>1122.31610027</v>
+        <v>143.47462261</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45302</v>
+        <v>45302.33333333334</v>
       </c>
       <c r="B157" t="n">
-        <v>46678.1</v>
+        <v>46105.1</v>
       </c>
       <c r="C157" t="n">
-        <v>46732.2</v>
+        <v>46325.3</v>
       </c>
       <c r="D157" t="n">
-        <v>46314.9</v>
+        <v>46081.9</v>
       </c>
       <c r="E157" t="n">
-        <v>46716</v>
+        <v>46300.1</v>
       </c>
       <c r="F157" t="n">
-        <v>204.09474129</v>
+        <v>104.55558374</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45302.04166666666</v>
+        <v>45302.375</v>
       </c>
       <c r="B158" t="n">
-        <v>46716</v>
+        <v>46300</v>
       </c>
       <c r="C158" t="n">
-        <v>46780</v>
+        <v>46356.6</v>
       </c>
       <c r="D158" t="n">
-        <v>46505.3</v>
+        <v>46245</v>
       </c>
       <c r="E158" t="n">
-        <v>46563.1</v>
+        <v>46250.2</v>
       </c>
       <c r="F158" t="n">
-        <v>169.85287173</v>
+        <v>43.19303563</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45302.08333333334</v>
+        <v>45302.41666666666</v>
       </c>
       <c r="B159" t="n">
-        <v>46563.1</v>
+        <v>46250.2</v>
       </c>
       <c r="C159" t="n">
-        <v>46650.3</v>
+        <v>46861.7</v>
       </c>
       <c r="D159" t="n">
-        <v>46539.7</v>
+        <v>46245</v>
       </c>
       <c r="E159" t="n">
-        <v>46578.9</v>
+        <v>46853.7</v>
       </c>
       <c r="F159" t="n">
-        <v>66.34803304</v>
+        <v>163.2716268</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45302.125</v>
+        <v>45302.45833333334</v>
       </c>
       <c r="B160" t="n">
-        <v>46578.9</v>
+        <v>46853.8</v>
       </c>
       <c r="C160" t="n">
-        <v>46613.9</v>
+        <v>47164</v>
       </c>
       <c r="D160" t="n">
-        <v>46280</v>
+        <v>46733.1</v>
       </c>
       <c r="E160" t="n">
-        <v>46518.9</v>
+        <v>47075.9</v>
       </c>
       <c r="F160" t="n">
-        <v>92.39540181</v>
+        <v>194.00805368</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45302.16666666666</v>
+        <v>45302.5</v>
       </c>
       <c r="B161" t="n">
-        <v>46519</v>
+        <v>47076</v>
       </c>
       <c r="C161" t="n">
-        <v>46519</v>
+        <v>47357.7</v>
       </c>
       <c r="D161" t="n">
-        <v>46369.2</v>
+        <v>47000</v>
       </c>
       <c r="E161" t="n">
-        <v>46407.8</v>
+        <v>47257.8</v>
       </c>
       <c r="F161" t="n">
-        <v>12.25326627</v>
+        <v>150.02470904</v>
       </c>
     </row>
   </sheetData>
@@ -3725,3202 +3725,3202 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45295.54166666666</v>
+        <v>45295.875</v>
       </c>
       <c r="B2" t="n">
-        <v>2237.75</v>
+        <v>2276.72</v>
       </c>
       <c r="C2" t="n">
-        <v>2248.94</v>
+        <v>2289.21</v>
       </c>
       <c r="D2" t="n">
-        <v>2235.09</v>
+        <v>2272.82</v>
       </c>
       <c r="E2" t="n">
-        <v>2242.27</v>
+        <v>2274.61</v>
       </c>
       <c r="F2" t="n">
-        <v>274.53814947</v>
+        <v>1242.49958326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45295.58333333334</v>
+        <v>45295.91666666666</v>
       </c>
       <c r="B3" t="n">
-        <v>2242.27</v>
+        <v>2274.61</v>
       </c>
       <c r="C3" t="n">
-        <v>2274.98</v>
+        <v>2288.87</v>
       </c>
       <c r="D3" t="n">
-        <v>2233.77</v>
+        <v>2265.75</v>
       </c>
       <c r="E3" t="n">
-        <v>2274.98</v>
+        <v>2271.09</v>
       </c>
       <c r="F3" t="n">
-        <v>620.99362797</v>
+        <v>612.96049666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45295.625</v>
+        <v>45295.95833333334</v>
       </c>
       <c r="B4" t="n">
-        <v>2274.98</v>
+        <v>2271.09</v>
       </c>
       <c r="C4" t="n">
-        <v>2284.99</v>
+        <v>2277.36</v>
       </c>
       <c r="D4" t="n">
-        <v>2266</v>
+        <v>2268.7</v>
       </c>
       <c r="E4" t="n">
-        <v>2279.02</v>
+        <v>2268.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1388.25902994</v>
+        <v>317.09582831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45295.66666666666</v>
+        <v>45296</v>
       </c>
       <c r="B5" t="n">
-        <v>2278.93</v>
+        <v>2269.33</v>
       </c>
       <c r="C5" t="n">
-        <v>2282.84</v>
+        <v>2277.56</v>
       </c>
       <c r="D5" t="n">
-        <v>2262.29</v>
+        <v>2263.32</v>
       </c>
       <c r="E5" t="n">
-        <v>2271.75</v>
+        <v>2270.49</v>
       </c>
       <c r="F5" t="n">
-        <v>2172.46007298</v>
+        <v>730.33681241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45295.70833333334</v>
+        <v>45296.04166666666</v>
       </c>
       <c r="B6" t="n">
-        <v>2272.44</v>
+        <v>2270.5</v>
       </c>
       <c r="C6" t="n">
-        <v>2290.01</v>
+        <v>2271.47</v>
       </c>
       <c r="D6" t="n">
-        <v>2270.68</v>
+        <v>2217.26</v>
       </c>
       <c r="E6" t="n">
-        <v>2277.7</v>
+        <v>2240.47</v>
       </c>
       <c r="F6" t="n">
-        <v>1627.19730161</v>
+        <v>1102.03216668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45295.75</v>
+        <v>45296.08333333334</v>
       </c>
       <c r="B7" t="n">
-        <v>2277.7</v>
+        <v>2237.87</v>
       </c>
       <c r="C7" t="n">
-        <v>2280.74</v>
+        <v>2253.16</v>
       </c>
       <c r="D7" t="n">
-        <v>2270.15</v>
+        <v>2232.64</v>
       </c>
       <c r="E7" t="n">
-        <v>2276.29</v>
+        <v>2242.59</v>
       </c>
       <c r="F7" t="n">
-        <v>1265.42598768</v>
+        <v>655.0405262199999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45295.79166666666</v>
+        <v>45296.125</v>
       </c>
       <c r="B8" t="n">
-        <v>2276.17</v>
+        <v>2242.35</v>
       </c>
       <c r="C8" t="n">
-        <v>2294.74</v>
+        <v>2251.77</v>
       </c>
       <c r="D8" t="n">
-        <v>2275.01</v>
+        <v>2241.86</v>
       </c>
       <c r="E8" t="n">
-        <v>2278.73</v>
+        <v>2243.77</v>
       </c>
       <c r="F8" t="n">
-        <v>1800.24396763</v>
+        <v>455.84963956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45295.83333333334</v>
+        <v>45296.16666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>2278.73</v>
+        <v>2243.93</v>
       </c>
       <c r="C9" t="n">
-        <v>2297.5</v>
+        <v>2249.37</v>
       </c>
       <c r="D9" t="n">
-        <v>2275.68</v>
+        <v>2236.87</v>
       </c>
       <c r="E9" t="n">
-        <v>2276.86</v>
+        <v>2246.44</v>
       </c>
       <c r="F9" t="n">
-        <v>1009.90873551</v>
+        <v>945.39180629</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45295.875</v>
+        <v>45296.20833333334</v>
       </c>
       <c r="B10" t="n">
-        <v>2276.72</v>
+        <v>2246.43</v>
       </c>
       <c r="C10" t="n">
-        <v>2289.21</v>
+        <v>2249.77</v>
       </c>
       <c r="D10" t="n">
-        <v>2272.82</v>
+        <v>2243.99</v>
       </c>
       <c r="E10" t="n">
-        <v>2274.61</v>
+        <v>2248.26</v>
       </c>
       <c r="F10" t="n">
-        <v>1242.49958326</v>
+        <v>995.20906152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45295.91666666666</v>
+        <v>45296.25</v>
       </c>
       <c r="B11" t="n">
-        <v>2274.61</v>
+        <v>2247.93</v>
       </c>
       <c r="C11" t="n">
-        <v>2288.87</v>
+        <v>2258.19</v>
       </c>
       <c r="D11" t="n">
-        <v>2265.75</v>
+        <v>2241.85</v>
       </c>
       <c r="E11" t="n">
-        <v>2271.09</v>
+        <v>2256.11</v>
       </c>
       <c r="F11" t="n">
-        <v>612.96049666</v>
+        <v>477.98397766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45295.95833333334</v>
+        <v>45296.29166666666</v>
       </c>
       <c r="B12" t="n">
-        <v>2271.09</v>
+        <v>2256.84</v>
       </c>
       <c r="C12" t="n">
-        <v>2277.36</v>
+        <v>2265.64</v>
       </c>
       <c r="D12" t="n">
-        <v>2268.7</v>
+        <v>2255</v>
       </c>
       <c r="E12" t="n">
-        <v>2268.7</v>
+        <v>2255.01</v>
       </c>
       <c r="F12" t="n">
-        <v>317.09582831</v>
+        <v>248.56442498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45296</v>
+        <v>45296.33333333334</v>
       </c>
       <c r="B13" t="n">
-        <v>2269.33</v>
+        <v>2255.01</v>
       </c>
       <c r="C13" t="n">
-        <v>2277.56</v>
+        <v>2260.25</v>
       </c>
       <c r="D13" t="n">
-        <v>2263.32</v>
+        <v>2253.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2270.49</v>
+        <v>2254.45</v>
       </c>
       <c r="F13" t="n">
-        <v>730.33681241</v>
+        <v>1068.41701368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45296.04166666666</v>
+        <v>45296.375</v>
       </c>
       <c r="B14" t="n">
-        <v>2270.5</v>
+        <v>2254.46</v>
       </c>
       <c r="C14" t="n">
-        <v>2271.47</v>
+        <v>2271.85</v>
       </c>
       <c r="D14" t="n">
-        <v>2217.26</v>
+        <v>2254.46</v>
       </c>
       <c r="E14" t="n">
-        <v>2240.47</v>
+        <v>2266.16</v>
       </c>
       <c r="F14" t="n">
-        <v>1102.03216668</v>
+        <v>369.34569546</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45296.08333333334</v>
+        <v>45296.41666666666</v>
       </c>
       <c r="B15" t="n">
-        <v>2237.87</v>
+        <v>2266.16</v>
       </c>
       <c r="C15" t="n">
-        <v>2253.16</v>
+        <v>2266.47</v>
       </c>
       <c r="D15" t="n">
-        <v>2232.64</v>
+        <v>2236.23</v>
       </c>
       <c r="E15" t="n">
-        <v>2242.59</v>
+        <v>2240.68</v>
       </c>
       <c r="F15" t="n">
-        <v>655.0405262199999</v>
+        <v>112.19344668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45296.125</v>
+        <v>45296.45833333334</v>
       </c>
       <c r="B16" t="n">
-        <v>2242.35</v>
+        <v>2240.67</v>
       </c>
       <c r="C16" t="n">
-        <v>2251.77</v>
+        <v>2250.46</v>
       </c>
       <c r="D16" t="n">
-        <v>2241.86</v>
+        <v>2240.67</v>
       </c>
       <c r="E16" t="n">
-        <v>2243.77</v>
+        <v>2243.83</v>
       </c>
       <c r="F16" t="n">
-        <v>455.84963956</v>
+        <v>199.14937026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45296.16666666666</v>
+        <v>45296.5</v>
       </c>
       <c r="B17" t="n">
-        <v>2243.93</v>
+        <v>2243.84</v>
       </c>
       <c r="C17" t="n">
-        <v>2249.37</v>
+        <v>2254.12</v>
       </c>
       <c r="D17" t="n">
-        <v>2236.87</v>
+        <v>2237.25</v>
       </c>
       <c r="E17" t="n">
-        <v>2246.44</v>
+        <v>2243.98</v>
       </c>
       <c r="F17" t="n">
-        <v>945.39180629</v>
+        <v>415.95193414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45296.20833333334</v>
+        <v>45296.54166666666</v>
       </c>
       <c r="B18" t="n">
-        <v>2246.43</v>
+        <v>2243.99</v>
       </c>
       <c r="C18" t="n">
-        <v>2249.77</v>
+        <v>2253.66</v>
       </c>
       <c r="D18" t="n">
-        <v>2243.99</v>
+        <v>2240.17</v>
       </c>
       <c r="E18" t="n">
-        <v>2248.26</v>
+        <v>2249.16</v>
       </c>
       <c r="F18" t="n">
-        <v>995.20906152</v>
+        <v>303.79937371</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45296.25</v>
+        <v>45296.58333333334</v>
       </c>
       <c r="B19" t="n">
-        <v>2247.93</v>
+        <v>2248.91</v>
       </c>
       <c r="C19" t="n">
-        <v>2258.19</v>
+        <v>2254.37</v>
       </c>
       <c r="D19" t="n">
-        <v>2241.85</v>
+        <v>2222.35</v>
       </c>
       <c r="E19" t="n">
-        <v>2256.11</v>
+        <v>2227.86</v>
       </c>
       <c r="F19" t="n">
-        <v>477.98397766</v>
+        <v>1052.95933849</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45296.29166666666</v>
+        <v>45296.625</v>
       </c>
       <c r="B20" t="n">
-        <v>2256.84</v>
+        <v>2228.71</v>
       </c>
       <c r="C20" t="n">
-        <v>2265.64</v>
+        <v>2242.92</v>
       </c>
       <c r="D20" t="n">
-        <v>2255</v>
+        <v>2221</v>
       </c>
       <c r="E20" t="n">
-        <v>2255.01</v>
+        <v>2225.33</v>
       </c>
       <c r="F20" t="n">
-        <v>248.56442498</v>
+        <v>935.66288302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296.33333333334</v>
+        <v>45296.66666666666</v>
       </c>
       <c r="B21" t="n">
-        <v>2255.01</v>
+        <v>2225.38</v>
       </c>
       <c r="C21" t="n">
-        <v>2260.25</v>
+        <v>2234.89</v>
       </c>
       <c r="D21" t="n">
-        <v>2253.5</v>
+        <v>2213.33</v>
       </c>
       <c r="E21" t="n">
-        <v>2254.45</v>
+        <v>2215.51</v>
       </c>
       <c r="F21" t="n">
-        <v>1068.41701368</v>
+        <v>535.70101963</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45296.375</v>
+        <v>45296.70833333334</v>
       </c>
       <c r="B22" t="n">
-        <v>2254.46</v>
+        <v>2214.42</v>
       </c>
       <c r="C22" t="n">
-        <v>2271.85</v>
+        <v>2234.03</v>
       </c>
       <c r="D22" t="n">
-        <v>2254.46</v>
+        <v>2209.32</v>
       </c>
       <c r="E22" t="n">
-        <v>2266.16</v>
+        <v>2233.55</v>
       </c>
       <c r="F22" t="n">
-        <v>369.34569546</v>
+        <v>709.63143516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45296.41666666666</v>
+        <v>45296.75</v>
       </c>
       <c r="B23" t="n">
-        <v>2266.16</v>
+        <v>2233.56</v>
       </c>
       <c r="C23" t="n">
-        <v>2266.47</v>
+        <v>2238.18</v>
       </c>
       <c r="D23" t="n">
-        <v>2236.23</v>
+        <v>2226.88</v>
       </c>
       <c r="E23" t="n">
-        <v>2240.68</v>
+        <v>2235.39</v>
       </c>
       <c r="F23" t="n">
-        <v>112.19344668</v>
+        <v>323.5696638</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45296.45833333334</v>
+        <v>45296.79166666666</v>
       </c>
       <c r="B24" t="n">
-        <v>2240.67</v>
+        <v>2235.4</v>
       </c>
       <c r="C24" t="n">
-        <v>2250.46</v>
+        <v>2240.74</v>
       </c>
       <c r="D24" t="n">
-        <v>2240.67</v>
+        <v>2231.8</v>
       </c>
       <c r="E24" t="n">
-        <v>2243.83</v>
+        <v>2235.46</v>
       </c>
       <c r="F24" t="n">
-        <v>199.14937026</v>
+        <v>1156.83413146</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45296.5</v>
+        <v>45296.83333333334</v>
       </c>
       <c r="B25" t="n">
-        <v>2243.84</v>
+        <v>2235.67</v>
       </c>
       <c r="C25" t="n">
-        <v>2254.12</v>
+        <v>2258</v>
       </c>
       <c r="D25" t="n">
-        <v>2237.25</v>
+        <v>2235.66</v>
       </c>
       <c r="E25" t="n">
-        <v>2243.98</v>
+        <v>2250.51</v>
       </c>
       <c r="F25" t="n">
-        <v>415.95193414</v>
+        <v>1020.48411656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45296.54166666666</v>
+        <v>45296.875</v>
       </c>
       <c r="B26" t="n">
-        <v>2243.99</v>
+        <v>2250.49</v>
       </c>
       <c r="C26" t="n">
-        <v>2253.66</v>
+        <v>2250.49</v>
       </c>
       <c r="D26" t="n">
-        <v>2240.17</v>
+        <v>2237.76</v>
       </c>
       <c r="E26" t="n">
-        <v>2249.16</v>
+        <v>2246.71</v>
       </c>
       <c r="F26" t="n">
-        <v>303.79937371</v>
+        <v>479.42865265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45296.58333333334</v>
+        <v>45296.91666666666</v>
       </c>
       <c r="B27" t="n">
-        <v>2248.91</v>
+        <v>2246.84</v>
       </c>
       <c r="C27" t="n">
-        <v>2254.37</v>
+        <v>2250.29</v>
       </c>
       <c r="D27" t="n">
-        <v>2222.35</v>
+        <v>2240.76</v>
       </c>
       <c r="E27" t="n">
-        <v>2227.86</v>
+        <v>2249.65</v>
       </c>
       <c r="F27" t="n">
-        <v>1052.95933849</v>
+        <v>823.47643006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45296.625</v>
+        <v>45296.95833333334</v>
       </c>
       <c r="B28" t="n">
-        <v>2228.71</v>
+        <v>2249.64</v>
       </c>
       <c r="C28" t="n">
-        <v>2242.92</v>
+        <v>2278</v>
       </c>
       <c r="D28" t="n">
-        <v>2221</v>
+        <v>2249.64</v>
       </c>
       <c r="E28" t="n">
-        <v>2225.33</v>
+        <v>2269.24</v>
       </c>
       <c r="F28" t="n">
-        <v>935.66288302</v>
+        <v>1454.14306708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45296.66666666666</v>
+        <v>45297</v>
       </c>
       <c r="B29" t="n">
-        <v>2225.38</v>
+        <v>2269.23</v>
       </c>
       <c r="C29" t="n">
-        <v>2234.89</v>
+        <v>2271.61</v>
       </c>
       <c r="D29" t="n">
-        <v>2213.33</v>
+        <v>2260.18</v>
       </c>
       <c r="E29" t="n">
-        <v>2215.51</v>
+        <v>2264.99</v>
       </c>
       <c r="F29" t="n">
-        <v>535.70101963</v>
+        <v>859.84790979</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45296.70833333334</v>
+        <v>45297.04166666666</v>
       </c>
       <c r="B30" t="n">
-        <v>2214.42</v>
+        <v>2264.98</v>
       </c>
       <c r="C30" t="n">
-        <v>2234.03</v>
+        <v>2265.05</v>
       </c>
       <c r="D30" t="n">
-        <v>2209.32</v>
+        <v>2255.26</v>
       </c>
       <c r="E30" t="n">
-        <v>2233.55</v>
+        <v>2256.98</v>
       </c>
       <c r="F30" t="n">
-        <v>709.63143516</v>
+        <v>1310.58480509</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45296.75</v>
+        <v>45297.08333333334</v>
       </c>
       <c r="B31" t="n">
-        <v>2233.56</v>
+        <v>2256.2</v>
       </c>
       <c r="C31" t="n">
-        <v>2238.18</v>
+        <v>2259.33</v>
       </c>
       <c r="D31" t="n">
-        <v>2226.88</v>
+        <v>2253.28</v>
       </c>
       <c r="E31" t="n">
-        <v>2235.39</v>
+        <v>2257.02</v>
       </c>
       <c r="F31" t="n">
-        <v>323.5696638</v>
+        <v>134.28675413</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45296.79166666666</v>
+        <v>45297.125</v>
       </c>
       <c r="B32" t="n">
-        <v>2235.4</v>
+        <v>2257.02</v>
       </c>
       <c r="C32" t="n">
-        <v>2240.74</v>
+        <v>2257.35</v>
       </c>
       <c r="D32" t="n">
-        <v>2231.8</v>
+        <v>2252.16</v>
       </c>
       <c r="E32" t="n">
-        <v>2235.46</v>
+        <v>2255.56</v>
       </c>
       <c r="F32" t="n">
-        <v>1156.83413146</v>
+        <v>220.08340806</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45296.83333333334</v>
+        <v>45297.16666666666</v>
       </c>
       <c r="B33" t="n">
-        <v>2235.67</v>
+        <v>2255.56</v>
       </c>
       <c r="C33" t="n">
-        <v>2258</v>
+        <v>2256.19</v>
       </c>
       <c r="D33" t="n">
-        <v>2235.66</v>
+        <v>2249.8</v>
       </c>
       <c r="E33" t="n">
-        <v>2250.51</v>
+        <v>2249.82</v>
       </c>
       <c r="F33" t="n">
-        <v>1020.48411656</v>
+        <v>926.92809636</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45296.875</v>
+        <v>45297.20833333334</v>
       </c>
       <c r="B34" t="n">
-        <v>2250.49</v>
+        <v>2249.81</v>
       </c>
       <c r="C34" t="n">
-        <v>2250.49</v>
+        <v>2250.3</v>
       </c>
       <c r="D34" t="n">
-        <v>2237.76</v>
+        <v>2232.5</v>
       </c>
       <c r="E34" t="n">
-        <v>2246.71</v>
+        <v>2237.22</v>
       </c>
       <c r="F34" t="n">
-        <v>479.42865265</v>
+        <v>649.63998222</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45296.91666666666</v>
+        <v>45297.25</v>
       </c>
       <c r="B35" t="n">
-        <v>2246.84</v>
+        <v>2237.11</v>
       </c>
       <c r="C35" t="n">
-        <v>2250.29</v>
+        <v>2237.11</v>
       </c>
       <c r="D35" t="n">
-        <v>2240.76</v>
+        <v>2218.63</v>
       </c>
       <c r="E35" t="n">
-        <v>2249.65</v>
+        <v>2221.02</v>
       </c>
       <c r="F35" t="n">
-        <v>823.47643006</v>
+        <v>306.00272294</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45296.95833333334</v>
+        <v>45297.29166666666</v>
       </c>
       <c r="B36" t="n">
-        <v>2249.64</v>
+        <v>2220.55</v>
       </c>
       <c r="C36" t="n">
-        <v>2278</v>
+        <v>2243.81</v>
       </c>
       <c r="D36" t="n">
-        <v>2249.64</v>
+        <v>2219.69</v>
       </c>
       <c r="E36" t="n">
-        <v>2269.24</v>
+        <v>2234.03</v>
       </c>
       <c r="F36" t="n">
-        <v>1454.14306708</v>
+        <v>1886.35873574</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45297</v>
+        <v>45297.33333333334</v>
       </c>
       <c r="B37" t="n">
-        <v>2269.23</v>
+        <v>2234.02</v>
       </c>
       <c r="C37" t="n">
-        <v>2271.61</v>
+        <v>2238.95</v>
       </c>
       <c r="D37" t="n">
-        <v>2260.18</v>
+        <v>2231.32</v>
       </c>
       <c r="E37" t="n">
-        <v>2264.99</v>
+        <v>2238.6</v>
       </c>
       <c r="F37" t="n">
-        <v>859.84790979</v>
+        <v>256.93651765</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45297.04166666666</v>
+        <v>45297.375</v>
       </c>
       <c r="B38" t="n">
-        <v>2264.98</v>
+        <v>2238.6</v>
       </c>
       <c r="C38" t="n">
-        <v>2265.05</v>
+        <v>2239.66</v>
       </c>
       <c r="D38" t="n">
-        <v>2255.26</v>
+        <v>2235.17</v>
       </c>
       <c r="E38" t="n">
-        <v>2256.98</v>
+        <v>2235.17</v>
       </c>
       <c r="F38" t="n">
-        <v>1310.58480509</v>
+        <v>305.30203588</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45297.08333333334</v>
+        <v>45297.41666666666</v>
       </c>
       <c r="B39" t="n">
-        <v>2256.2</v>
+        <v>2235.46</v>
       </c>
       <c r="C39" t="n">
-        <v>2259.33</v>
+        <v>2238.8</v>
       </c>
       <c r="D39" t="n">
-        <v>2253.28</v>
+        <v>2231.95</v>
       </c>
       <c r="E39" t="n">
-        <v>2257.02</v>
+        <v>2237.1</v>
       </c>
       <c r="F39" t="n">
-        <v>134.28675413</v>
+        <v>71.19238885</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45297.125</v>
+        <v>45297.45833333334</v>
       </c>
       <c r="B40" t="n">
-        <v>2257.02</v>
+        <v>2237.1</v>
       </c>
       <c r="C40" t="n">
-        <v>2257.35</v>
+        <v>2238.76</v>
       </c>
       <c r="D40" t="n">
-        <v>2252.16</v>
+        <v>2233.47</v>
       </c>
       <c r="E40" t="n">
-        <v>2255.56</v>
+        <v>2238.55</v>
       </c>
       <c r="F40" t="n">
-        <v>220.08340806</v>
+        <v>41.77288205</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45297.16666666666</v>
+        <v>45297.5</v>
       </c>
       <c r="B41" t="n">
-        <v>2255.56</v>
+        <v>2238.55</v>
       </c>
       <c r="C41" t="n">
-        <v>2256.19</v>
+        <v>2242.31</v>
       </c>
       <c r="D41" t="n">
-        <v>2249.8</v>
+        <v>2230.05</v>
       </c>
       <c r="E41" t="n">
-        <v>2249.82</v>
+        <v>2232.71</v>
       </c>
       <c r="F41" t="n">
-        <v>926.92809636</v>
+        <v>189.63329738</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45297.20833333334</v>
+        <v>45297.54166666666</v>
       </c>
       <c r="B42" t="n">
-        <v>2249.81</v>
+        <v>2232.71</v>
       </c>
       <c r="C42" t="n">
-        <v>2250.3</v>
+        <v>2239.73</v>
       </c>
       <c r="D42" t="n">
-        <v>2232.5</v>
+        <v>2230.63</v>
       </c>
       <c r="E42" t="n">
-        <v>2237.22</v>
+        <v>2239.03</v>
       </c>
       <c r="F42" t="n">
-        <v>649.63998222</v>
+        <v>116.73837504</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45297.25</v>
+        <v>45297.58333333334</v>
       </c>
       <c r="B43" t="n">
-        <v>2237.11</v>
+        <v>2239.03</v>
       </c>
       <c r="C43" t="n">
-        <v>2237.11</v>
+        <v>2247.97</v>
       </c>
       <c r="D43" t="n">
-        <v>2218.63</v>
+        <v>2239.02</v>
       </c>
       <c r="E43" t="n">
-        <v>2221.02</v>
+        <v>2241.99</v>
       </c>
       <c r="F43" t="n">
-        <v>306.00272294</v>
+        <v>166.78198971</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45297.29166666666</v>
+        <v>45297.625</v>
       </c>
       <c r="B44" t="n">
-        <v>2220.55</v>
+        <v>2241.99</v>
       </c>
       <c r="C44" t="n">
-        <v>2243.81</v>
+        <v>2249.22</v>
       </c>
       <c r="D44" t="n">
-        <v>2219.69</v>
+        <v>2239.52</v>
       </c>
       <c r="E44" t="n">
-        <v>2234.03</v>
+        <v>2247.62</v>
       </c>
       <c r="F44" t="n">
-        <v>1886.35873574</v>
+        <v>121.64501193</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45297.33333333334</v>
+        <v>45297.66666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>2234.02</v>
+        <v>2247.73</v>
       </c>
       <c r="C45" t="n">
-        <v>2238.95</v>
+        <v>2249.78</v>
       </c>
       <c r="D45" t="n">
-        <v>2231.32</v>
+        <v>2245.1</v>
       </c>
       <c r="E45" t="n">
-        <v>2238.6</v>
+        <v>2247.19</v>
       </c>
       <c r="F45" t="n">
-        <v>256.93651765</v>
+        <v>176.49646725</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45297.375</v>
+        <v>45297.70833333334</v>
       </c>
       <c r="B46" t="n">
-        <v>2238.6</v>
+        <v>2245.96</v>
       </c>
       <c r="C46" t="n">
-        <v>2239.66</v>
+        <v>2253.15</v>
       </c>
       <c r="D46" t="n">
-        <v>2235.17</v>
+        <v>2245.3</v>
       </c>
       <c r="E46" t="n">
-        <v>2235.17</v>
+        <v>2251.39</v>
       </c>
       <c r="F46" t="n">
-        <v>305.30203588</v>
+        <v>314.11543564</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45297.41666666666</v>
+        <v>45297.75</v>
       </c>
       <c r="B47" t="n">
-        <v>2235.46</v>
+        <v>2251.09</v>
       </c>
       <c r="C47" t="n">
-        <v>2238.8</v>
+        <v>2253.89</v>
       </c>
       <c r="D47" t="n">
-        <v>2231.95</v>
+        <v>2246.98</v>
       </c>
       <c r="E47" t="n">
-        <v>2237.1</v>
+        <v>2248.5</v>
       </c>
       <c r="F47" t="n">
-        <v>71.19238885</v>
+        <v>111.83084429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45297.45833333334</v>
+        <v>45297.79166666666</v>
       </c>
       <c r="B48" t="n">
-        <v>2237.1</v>
+        <v>2249</v>
       </c>
       <c r="C48" t="n">
-        <v>2238.76</v>
+        <v>2249</v>
       </c>
       <c r="D48" t="n">
-        <v>2233.47</v>
+        <v>2240</v>
       </c>
       <c r="E48" t="n">
-        <v>2238.55</v>
+        <v>2245.99</v>
       </c>
       <c r="F48" t="n">
-        <v>41.77288205</v>
+        <v>172.78990032</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45297.5</v>
+        <v>45297.83333333334</v>
       </c>
       <c r="B49" t="n">
-        <v>2238.55</v>
+        <v>2245.99</v>
       </c>
       <c r="C49" t="n">
-        <v>2242.31</v>
+        <v>2247.54</v>
       </c>
       <c r="D49" t="n">
-        <v>2230.05</v>
+        <v>2239.02</v>
       </c>
       <c r="E49" t="n">
-        <v>2232.71</v>
+        <v>2243.09</v>
       </c>
       <c r="F49" t="n">
-        <v>189.63329738</v>
+        <v>271.1063559</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45297.54166666666</v>
+        <v>45297.875</v>
       </c>
       <c r="B50" t="n">
-        <v>2232.71</v>
+        <v>2243.46</v>
       </c>
       <c r="C50" t="n">
-        <v>2239.73</v>
+        <v>2243.76</v>
       </c>
       <c r="D50" t="n">
-        <v>2230.63</v>
+        <v>2238.32</v>
       </c>
       <c r="E50" t="n">
-        <v>2239.03</v>
+        <v>2241.19</v>
       </c>
       <c r="F50" t="n">
-        <v>116.73837504</v>
+        <v>404.43426894</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45297.58333333334</v>
+        <v>45297.91666666666</v>
       </c>
       <c r="B51" t="n">
-        <v>2239.03</v>
+        <v>2241.19</v>
       </c>
       <c r="C51" t="n">
-        <v>2247.97</v>
+        <v>2241.98</v>
       </c>
       <c r="D51" t="n">
-        <v>2239.02</v>
+        <v>2234.56</v>
       </c>
       <c r="E51" t="n">
-        <v>2241.99</v>
+        <v>2238.01</v>
       </c>
       <c r="F51" t="n">
-        <v>166.78198971</v>
+        <v>723.93684397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45297.625</v>
+        <v>45297.95833333334</v>
       </c>
       <c r="B52" t="n">
-        <v>2241.99</v>
+        <v>2238.02</v>
       </c>
       <c r="C52" t="n">
-        <v>2249.22</v>
+        <v>2240.84</v>
       </c>
       <c r="D52" t="n">
-        <v>2239.52</v>
+        <v>2233.8</v>
       </c>
       <c r="E52" t="n">
-        <v>2247.62</v>
+        <v>2240.84</v>
       </c>
       <c r="F52" t="n">
-        <v>121.64501193</v>
+        <v>765.34530524</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45297.66666666666</v>
+        <v>45298</v>
       </c>
       <c r="B53" t="n">
-        <v>2247.73</v>
+        <v>2240.83</v>
       </c>
       <c r="C53" t="n">
-        <v>2249.78</v>
+        <v>2253.54</v>
       </c>
       <c r="D53" t="n">
-        <v>2245.1</v>
+        <v>2239.51</v>
       </c>
       <c r="E53" t="n">
-        <v>2247.19</v>
+        <v>2251.15</v>
       </c>
       <c r="F53" t="n">
-        <v>176.49646725</v>
+        <v>456.06466072</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45297.70833333334</v>
+        <v>45298.04166666666</v>
       </c>
       <c r="B54" t="n">
-        <v>2245.96</v>
+        <v>2251.53</v>
       </c>
       <c r="C54" t="n">
-        <v>2253.15</v>
+        <v>2253.57</v>
       </c>
       <c r="D54" t="n">
-        <v>2245.3</v>
+        <v>2243.01</v>
       </c>
       <c r="E54" t="n">
-        <v>2251.39</v>
+        <v>2243.01</v>
       </c>
       <c r="F54" t="n">
-        <v>314.11543564</v>
+        <v>85.89934666000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45297.75</v>
+        <v>45298.08333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>2251.09</v>
+        <v>2243.01</v>
       </c>
       <c r="C55" t="n">
-        <v>2253.89</v>
+        <v>2249.28</v>
       </c>
       <c r="D55" t="n">
-        <v>2246.98</v>
+        <v>2237.03</v>
       </c>
       <c r="E55" t="n">
-        <v>2248.5</v>
+        <v>2241.14</v>
       </c>
       <c r="F55" t="n">
-        <v>111.83084429</v>
+        <v>404.83696611</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45297.79166666666</v>
+        <v>45298.125</v>
       </c>
       <c r="B56" t="n">
-        <v>2249</v>
+        <v>2241.13</v>
       </c>
       <c r="C56" t="n">
-        <v>2249</v>
+        <v>2245.99</v>
       </c>
       <c r="D56" t="n">
-        <v>2240</v>
+        <v>2241.13</v>
       </c>
       <c r="E56" t="n">
-        <v>2245.99</v>
+        <v>2243.07</v>
       </c>
       <c r="F56" t="n">
-        <v>172.78990032</v>
+        <v>122.4816757</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45297.83333333334</v>
+        <v>45298.16666666666</v>
       </c>
       <c r="B57" t="n">
-        <v>2245.99</v>
+        <v>2243.32</v>
       </c>
       <c r="C57" t="n">
-        <v>2247.54</v>
+        <v>2249.7</v>
       </c>
       <c r="D57" t="n">
-        <v>2239.02</v>
+        <v>2243.32</v>
       </c>
       <c r="E57" t="n">
-        <v>2243.09</v>
+        <v>2249.69</v>
       </c>
       <c r="F57" t="n">
-        <v>271.1063559</v>
+        <v>428.59466695</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45297.875</v>
+        <v>45298.20833333334</v>
       </c>
       <c r="B58" t="n">
-        <v>2243.46</v>
+        <v>2249.7</v>
       </c>
       <c r="C58" t="n">
-        <v>2243.76</v>
+        <v>2250</v>
       </c>
       <c r="D58" t="n">
-        <v>2238.32</v>
+        <v>2242.88</v>
       </c>
       <c r="E58" t="n">
-        <v>2241.19</v>
+        <v>2244.1</v>
       </c>
       <c r="F58" t="n">
-        <v>404.43426894</v>
+        <v>44.82301898</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45297.91666666666</v>
+        <v>45298.25</v>
       </c>
       <c r="B59" t="n">
-        <v>2241.19</v>
+        <v>2244.25</v>
       </c>
       <c r="C59" t="n">
-        <v>2241.98</v>
+        <v>2250.26</v>
       </c>
       <c r="D59" t="n">
-        <v>2234.56</v>
+        <v>2242.51</v>
       </c>
       <c r="E59" t="n">
-        <v>2238.01</v>
+        <v>2249.14</v>
       </c>
       <c r="F59" t="n">
-        <v>723.93684397</v>
+        <v>65.16621797000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45297.95833333334</v>
+        <v>45298.29166666666</v>
       </c>
       <c r="B60" t="n">
-        <v>2238.02</v>
+        <v>2249.14</v>
       </c>
       <c r="C60" t="n">
-        <v>2240.84</v>
+        <v>2251</v>
       </c>
       <c r="D60" t="n">
-        <v>2233.8</v>
+        <v>2248</v>
       </c>
       <c r="E60" t="n">
-        <v>2240.84</v>
+        <v>2249.04</v>
       </c>
       <c r="F60" t="n">
-        <v>765.34530524</v>
+        <v>165.64874105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45298</v>
+        <v>45298.33333333334</v>
       </c>
       <c r="B61" t="n">
-        <v>2240.83</v>
+        <v>2249.03</v>
       </c>
       <c r="C61" t="n">
-        <v>2253.54</v>
+        <v>2252</v>
       </c>
       <c r="D61" t="n">
-        <v>2239.51</v>
+        <v>2240.97</v>
       </c>
       <c r="E61" t="n">
-        <v>2251.15</v>
+        <v>2240.97</v>
       </c>
       <c r="F61" t="n">
-        <v>456.06466072</v>
+        <v>329.81807227</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45298.04166666666</v>
+        <v>45298.375</v>
       </c>
       <c r="B62" t="n">
-        <v>2251.53</v>
+        <v>2240.63</v>
       </c>
       <c r="C62" t="n">
-        <v>2253.57</v>
+        <v>2243.5</v>
       </c>
       <c r="D62" t="n">
-        <v>2243.01</v>
+        <v>2232.5</v>
       </c>
       <c r="E62" t="n">
-        <v>2243.01</v>
+        <v>2234.34</v>
       </c>
       <c r="F62" t="n">
-        <v>85.89934666000001</v>
+        <v>152.40844627</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45298.08333333334</v>
+        <v>45298.41666666666</v>
       </c>
       <c r="B63" t="n">
-        <v>2243.01</v>
+        <v>2234.34</v>
       </c>
       <c r="C63" t="n">
-        <v>2249.28</v>
+        <v>2239.47</v>
       </c>
       <c r="D63" t="n">
-        <v>2237.03</v>
+        <v>2234.34</v>
       </c>
       <c r="E63" t="n">
-        <v>2241.14</v>
+        <v>2238.61</v>
       </c>
       <c r="F63" t="n">
-        <v>404.83696611</v>
+        <v>137.28476693</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45298.125</v>
+        <v>45298.45833333334</v>
       </c>
       <c r="B64" t="n">
-        <v>2241.13</v>
+        <v>2238.61</v>
       </c>
       <c r="C64" t="n">
-        <v>2245.99</v>
+        <v>2242.4</v>
       </c>
       <c r="D64" t="n">
-        <v>2241.13</v>
+        <v>2235.63</v>
       </c>
       <c r="E64" t="n">
-        <v>2243.07</v>
+        <v>2238.48</v>
       </c>
       <c r="F64" t="n">
-        <v>122.4816757</v>
+        <v>114.95841917</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45298.16666666666</v>
+        <v>45298.5</v>
       </c>
       <c r="B65" t="n">
-        <v>2243.32</v>
+        <v>2238.49</v>
       </c>
       <c r="C65" t="n">
-        <v>2249.7</v>
+        <v>2241.26</v>
       </c>
       <c r="D65" t="n">
-        <v>2243.32</v>
+        <v>2233.41</v>
       </c>
       <c r="E65" t="n">
-        <v>2249.69</v>
+        <v>2239.23</v>
       </c>
       <c r="F65" t="n">
-        <v>428.59466695</v>
+        <v>75.53004993</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45298.20833333334</v>
+        <v>45298.54166666666</v>
       </c>
       <c r="B66" t="n">
-        <v>2249.7</v>
+        <v>2239.18</v>
       </c>
       <c r="C66" t="n">
-        <v>2250</v>
+        <v>2256</v>
       </c>
       <c r="D66" t="n">
-        <v>2242.88</v>
+        <v>2239.01</v>
       </c>
       <c r="E66" t="n">
-        <v>2244.1</v>
+        <v>2252.35</v>
       </c>
       <c r="F66" t="n">
-        <v>44.82301898</v>
+        <v>722.05230413</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45298.25</v>
+        <v>45298.58333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>2244.25</v>
+        <v>2252.47</v>
       </c>
       <c r="C67" t="n">
-        <v>2250.26</v>
+        <v>2254.1</v>
       </c>
       <c r="D67" t="n">
-        <v>2242.51</v>
+        <v>2245.84</v>
       </c>
       <c r="E67" t="n">
-        <v>2249.14</v>
+        <v>2248.28</v>
       </c>
       <c r="F67" t="n">
-        <v>65.16621797000001</v>
+        <v>242.02094913</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45298.29166666666</v>
+        <v>45298.625</v>
       </c>
       <c r="B68" t="n">
-        <v>2249.14</v>
+        <v>2248.41</v>
       </c>
       <c r="C68" t="n">
-        <v>2251</v>
+        <v>2249.43</v>
       </c>
       <c r="D68" t="n">
-        <v>2248</v>
+        <v>2224.7</v>
       </c>
       <c r="E68" t="n">
-        <v>2249.04</v>
+        <v>2231.6</v>
       </c>
       <c r="F68" t="n">
-        <v>165.64874105</v>
+        <v>634.22612652</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45298.33333333334</v>
+        <v>45298.66666666666</v>
       </c>
       <c r="B69" t="n">
-        <v>2249.03</v>
+        <v>2231.59</v>
       </c>
       <c r="C69" t="n">
-        <v>2252</v>
+        <v>2235.99</v>
       </c>
       <c r="D69" t="n">
-        <v>2240.97</v>
+        <v>2224.99</v>
       </c>
       <c r="E69" t="n">
-        <v>2240.97</v>
+        <v>2228.2</v>
       </c>
       <c r="F69" t="n">
-        <v>329.81807227</v>
+        <v>698.31636054</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45298.375</v>
+        <v>45298.70833333334</v>
       </c>
       <c r="B70" t="n">
-        <v>2240.63</v>
+        <v>2227.6</v>
       </c>
       <c r="C70" t="n">
-        <v>2243.5</v>
+        <v>2242.2</v>
       </c>
       <c r="D70" t="n">
-        <v>2232.5</v>
+        <v>2223.99</v>
       </c>
       <c r="E70" t="n">
-        <v>2234.34</v>
+        <v>2238.84</v>
       </c>
       <c r="F70" t="n">
-        <v>152.40844627</v>
+        <v>588.14343482</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45298.41666666666</v>
+        <v>45298.75</v>
       </c>
       <c r="B71" t="n">
-        <v>2234.34</v>
+        <v>2238.83</v>
       </c>
       <c r="C71" t="n">
-        <v>2239.47</v>
+        <v>2248.47</v>
       </c>
       <c r="D71" t="n">
-        <v>2234.34</v>
+        <v>2238.45</v>
       </c>
       <c r="E71" t="n">
-        <v>2238.61</v>
+        <v>2246.15</v>
       </c>
       <c r="F71" t="n">
-        <v>137.28476693</v>
+        <v>206.89893265</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45298.45833333334</v>
+        <v>45298.79166666666</v>
       </c>
       <c r="B72" t="n">
-        <v>2238.61</v>
+        <v>2246.13</v>
       </c>
       <c r="C72" t="n">
-        <v>2242.4</v>
+        <v>2249.63</v>
       </c>
       <c r="D72" t="n">
-        <v>2235.63</v>
+        <v>2244.08</v>
       </c>
       <c r="E72" t="n">
-        <v>2238.48</v>
+        <v>2248.96</v>
       </c>
       <c r="F72" t="n">
-        <v>114.95841917</v>
+        <v>251.16668475</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45298.5</v>
+        <v>45298.83333333334</v>
       </c>
       <c r="B73" t="n">
-        <v>2238.49</v>
+        <v>2248.97</v>
       </c>
       <c r="C73" t="n">
-        <v>2241.26</v>
+        <v>2250.38</v>
       </c>
       <c r="D73" t="n">
-        <v>2233.41</v>
+        <v>2241.97</v>
       </c>
       <c r="E73" t="n">
-        <v>2239.23</v>
+        <v>2241.97</v>
       </c>
       <c r="F73" t="n">
-        <v>75.53004993</v>
+        <v>1012.97081261</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45298.54166666666</v>
+        <v>45298.875</v>
       </c>
       <c r="B74" t="n">
-        <v>2239.18</v>
+        <v>2240.87</v>
       </c>
       <c r="C74" t="n">
-        <v>2256</v>
+        <v>2244.41</v>
       </c>
       <c r="D74" t="n">
-        <v>2239.01</v>
+        <v>2237.4</v>
       </c>
       <c r="E74" t="n">
-        <v>2252.35</v>
+        <v>2240.68</v>
       </c>
       <c r="F74" t="n">
-        <v>722.05230413</v>
+        <v>198.78551565</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45298.58333333334</v>
+        <v>45298.91666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>2252.47</v>
+        <v>2240.53</v>
       </c>
       <c r="C75" t="n">
-        <v>2254.1</v>
+        <v>2240.53</v>
       </c>
       <c r="D75" t="n">
-        <v>2245.84</v>
+        <v>2210</v>
       </c>
       <c r="E75" t="n">
-        <v>2248.28</v>
+        <v>2216.17</v>
       </c>
       <c r="F75" t="n">
-        <v>242.02094913</v>
+        <v>2234.6941833</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45298.625</v>
+        <v>45298.95833333334</v>
       </c>
       <c r="B76" t="n">
-        <v>2248.41</v>
+        <v>2216.31</v>
       </c>
       <c r="C76" t="n">
-        <v>2249.43</v>
+        <v>2225.32</v>
       </c>
       <c r="D76" t="n">
-        <v>2224.7</v>
+        <v>2208.4</v>
       </c>
       <c r="E76" t="n">
-        <v>2231.6</v>
+        <v>2220.78</v>
       </c>
       <c r="F76" t="n">
-        <v>634.22612652</v>
+        <v>1945.29410619</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45298.66666666666</v>
+        <v>45299</v>
       </c>
       <c r="B77" t="n">
-        <v>2231.59</v>
+        <v>2222.38</v>
       </c>
       <c r="C77" t="n">
-        <v>2235.99</v>
+        <v>2224.07</v>
       </c>
       <c r="D77" t="n">
-        <v>2224.99</v>
+        <v>2174.86</v>
       </c>
       <c r="E77" t="n">
-        <v>2228.2</v>
+        <v>2195.64</v>
       </c>
       <c r="F77" t="n">
-        <v>698.31636054</v>
+        <v>1567.12167929</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45298.70833333334</v>
+        <v>45299.04166666666</v>
       </c>
       <c r="B78" t="n">
-        <v>2227.6</v>
+        <v>2195.64</v>
       </c>
       <c r="C78" t="n">
-        <v>2242.2</v>
+        <v>2210.31</v>
       </c>
       <c r="D78" t="n">
-        <v>2223.99</v>
+        <v>2194.89</v>
       </c>
       <c r="E78" t="n">
-        <v>2238.84</v>
+        <v>2205.09</v>
       </c>
       <c r="F78" t="n">
-        <v>588.14343482</v>
+        <v>110.96852792</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45298.75</v>
+        <v>45299.08333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>2238.83</v>
+        <v>2205.09</v>
       </c>
       <c r="C79" t="n">
-        <v>2248.47</v>
+        <v>2208.18</v>
       </c>
       <c r="D79" t="n">
-        <v>2238.45</v>
+        <v>2174.04</v>
       </c>
       <c r="E79" t="n">
-        <v>2246.15</v>
+        <v>2183.44</v>
       </c>
       <c r="F79" t="n">
-        <v>206.89893265</v>
+        <v>744.72682495</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45298.79166666666</v>
+        <v>45299.125</v>
       </c>
       <c r="B80" t="n">
-        <v>2246.13</v>
+        <v>2183.45</v>
       </c>
       <c r="C80" t="n">
-        <v>2249.63</v>
+        <v>2192</v>
       </c>
       <c r="D80" t="n">
-        <v>2244.08</v>
+        <v>2170</v>
       </c>
       <c r="E80" t="n">
-        <v>2248.96</v>
+        <v>2191.57</v>
       </c>
       <c r="F80" t="n">
-        <v>251.16668475</v>
+        <v>1915.07592556</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45298.83333333334</v>
+        <v>45299.16666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>2248.97</v>
+        <v>2191.64</v>
       </c>
       <c r="C81" t="n">
-        <v>2250.38</v>
+        <v>2197.83</v>
       </c>
       <c r="D81" t="n">
-        <v>2241.97</v>
+        <v>2189.58</v>
       </c>
       <c r="E81" t="n">
-        <v>2241.97</v>
+        <v>2197.32</v>
       </c>
       <c r="F81" t="n">
-        <v>1012.97081261</v>
+        <v>385.66470136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45298.875</v>
+        <v>45299.20833333334</v>
       </c>
       <c r="B82" t="n">
-        <v>2240.87</v>
+        <v>2197.24</v>
       </c>
       <c r="C82" t="n">
-        <v>2244.41</v>
+        <v>2197.81</v>
       </c>
       <c r="D82" t="n">
-        <v>2237.4</v>
+        <v>2190</v>
       </c>
       <c r="E82" t="n">
-        <v>2240.68</v>
+        <v>2196.9</v>
       </c>
       <c r="F82" t="n">
-        <v>198.78551565</v>
+        <v>266.41277863</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45298.91666666666</v>
+        <v>45299.25</v>
       </c>
       <c r="B83" t="n">
-        <v>2240.53</v>
+        <v>2196.9</v>
       </c>
       <c r="C83" t="n">
-        <v>2240.53</v>
+        <v>2221.72</v>
       </c>
       <c r="D83" t="n">
-        <v>2210</v>
+        <v>2195.43</v>
       </c>
       <c r="E83" t="n">
-        <v>2216.17</v>
+        <v>2212.64</v>
       </c>
       <c r="F83" t="n">
-        <v>2234.6941833</v>
+        <v>718.79030049</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45298.95833333334</v>
+        <v>45299.29166666666</v>
       </c>
       <c r="B84" t="n">
-        <v>2216.31</v>
+        <v>2212.65</v>
       </c>
       <c r="C84" t="n">
-        <v>2225.32</v>
+        <v>2228.26</v>
       </c>
       <c r="D84" t="n">
-        <v>2208.4</v>
+        <v>2212.65</v>
       </c>
       <c r="E84" t="n">
-        <v>2220.78</v>
+        <v>2224.93</v>
       </c>
       <c r="F84" t="n">
-        <v>1945.29410619</v>
+        <v>424.87182295</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45299</v>
+        <v>45299.33333333334</v>
       </c>
       <c r="B85" t="n">
-        <v>2222.38</v>
+        <v>2224.92</v>
       </c>
       <c r="C85" t="n">
-        <v>2224.07</v>
+        <v>2224.92</v>
       </c>
       <c r="D85" t="n">
-        <v>2174.86</v>
+        <v>2224.41</v>
       </c>
       <c r="E85" t="n">
-        <v>2195.64</v>
+        <v>2224.41</v>
       </c>
       <c r="F85" t="n">
-        <v>1567.12167929</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45299.04166666666</v>
+        <v>45299.375</v>
       </c>
       <c r="B86" t="n">
-        <v>2195.64</v>
+        <v>2224.41</v>
       </c>
       <c r="C86" t="n">
-        <v>2210.31</v>
+        <v>2224.41</v>
       </c>
       <c r="D86" t="n">
-        <v>2194.89</v>
+        <v>2224.41</v>
       </c>
       <c r="E86" t="n">
-        <v>2205.09</v>
+        <v>2224.41</v>
       </c>
       <c r="F86" t="n">
-        <v>110.96852792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45299.08333333334</v>
+        <v>45299.41666666666</v>
       </c>
       <c r="B87" t="n">
-        <v>2205.09</v>
+        <v>2224.41</v>
       </c>
       <c r="C87" t="n">
-        <v>2208.18</v>
+        <v>2224.41</v>
       </c>
       <c r="D87" t="n">
-        <v>2174.04</v>
+        <v>2224.41</v>
       </c>
       <c r="E87" t="n">
-        <v>2183.44</v>
+        <v>2224.41</v>
       </c>
       <c r="F87" t="n">
-        <v>744.72682495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45299.125</v>
+        <v>45299.45833333334</v>
       </c>
       <c r="B88" t="n">
-        <v>2183.45</v>
+        <v>2224.29</v>
       </c>
       <c r="C88" t="n">
-        <v>2192</v>
+        <v>2242.46</v>
       </c>
       <c r="D88" t="n">
-        <v>2170</v>
+        <v>2219.08</v>
       </c>
       <c r="E88" t="n">
-        <v>2191.57</v>
+        <v>2240.02</v>
       </c>
       <c r="F88" t="n">
-        <v>1915.07592556</v>
+        <v>846.31521935</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45299.16666666666</v>
+        <v>45299.5</v>
       </c>
       <c r="B89" t="n">
-        <v>2191.64</v>
+        <v>2240.03</v>
       </c>
       <c r="C89" t="n">
-        <v>2197.83</v>
+        <v>2270</v>
       </c>
       <c r="D89" t="n">
-        <v>2189.58</v>
+        <v>2118</v>
       </c>
       <c r="E89" t="n">
-        <v>2197.32</v>
+        <v>2266.59</v>
       </c>
       <c r="F89" t="n">
-        <v>385.66470136</v>
+        <v>4455.11356996</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45299.20833333334</v>
+        <v>45299.54166666666</v>
       </c>
       <c r="B90" t="n">
-        <v>2197.24</v>
+        <v>2266.92</v>
       </c>
       <c r="C90" t="n">
-        <v>2197.81</v>
+        <v>2277.43</v>
       </c>
       <c r="D90" t="n">
-        <v>2190</v>
+        <v>2261.26</v>
       </c>
       <c r="E90" t="n">
-        <v>2196.9</v>
+        <v>2267.99</v>
       </c>
       <c r="F90" t="n">
-        <v>266.41277863</v>
+        <v>935.08097854</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45299.25</v>
+        <v>45299.58333333334</v>
       </c>
       <c r="B91" t="n">
-        <v>2196.9</v>
+        <v>2267.66</v>
       </c>
       <c r="C91" t="n">
-        <v>2221.72</v>
+        <v>2274.38</v>
       </c>
       <c r="D91" t="n">
-        <v>2195.43</v>
+        <v>2258.79</v>
       </c>
       <c r="E91" t="n">
-        <v>2212.64</v>
+        <v>2263</v>
       </c>
       <c r="F91" t="n">
-        <v>718.79030049</v>
+        <v>609.90021346</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45299.29166666666</v>
+        <v>45299.625</v>
       </c>
       <c r="B92" t="n">
-        <v>2212.65</v>
+        <v>2263</v>
       </c>
       <c r="C92" t="n">
-        <v>2228.26</v>
+        <v>2282.88</v>
       </c>
       <c r="D92" t="n">
-        <v>2212.65</v>
+        <v>2259.3</v>
       </c>
       <c r="E92" t="n">
-        <v>2224.93</v>
+        <v>2272.11</v>
       </c>
       <c r="F92" t="n">
-        <v>424.87182295</v>
+        <v>855.2212027</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45299.33333333334</v>
+        <v>45299.66666666666</v>
       </c>
       <c r="B93" t="n">
-        <v>2224.92</v>
+        <v>2272.1</v>
       </c>
       <c r="C93" t="n">
-        <v>2224.92</v>
+        <v>2282.53</v>
       </c>
       <c r="D93" t="n">
-        <v>2224.41</v>
+        <v>2262.32</v>
       </c>
       <c r="E93" t="n">
-        <v>2224.41</v>
+        <v>2264.98</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3</v>
+        <v>534.83289125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45299.375</v>
+        <v>45299.70833333334</v>
       </c>
       <c r="B94" t="n">
-        <v>2224.41</v>
+        <v>2264.98</v>
       </c>
       <c r="C94" t="n">
-        <v>2224.41</v>
+        <v>2307.85</v>
       </c>
       <c r="D94" t="n">
-        <v>2224.41</v>
+        <v>2263.72</v>
       </c>
       <c r="E94" t="n">
-        <v>2224.41</v>
+        <v>2307.85</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2661.9055928</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45299.41666666666</v>
+        <v>45299.75</v>
       </c>
       <c r="B95" t="n">
-        <v>2224.41</v>
+        <v>2307.86</v>
       </c>
       <c r="C95" t="n">
-        <v>2224.41</v>
+        <v>2340.68</v>
       </c>
       <c r="D95" t="n">
-        <v>2224.41</v>
+        <v>2307.33</v>
       </c>
       <c r="E95" t="n">
-        <v>2224.41</v>
+        <v>2338.63</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1481.31341428</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45299.45833333334</v>
+        <v>45299.79166666666</v>
       </c>
       <c r="B96" t="n">
-        <v>2224.29</v>
+        <v>2338.08</v>
       </c>
       <c r="C96" t="n">
-        <v>2242.46</v>
+        <v>2358.98</v>
       </c>
       <c r="D96" t="n">
-        <v>2219.08</v>
+        <v>2324.11</v>
       </c>
       <c r="E96" t="n">
-        <v>2240.02</v>
+        <v>2356.92</v>
       </c>
       <c r="F96" t="n">
-        <v>846.31521935</v>
+        <v>2970.03246412</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45299.5</v>
+        <v>45299.83333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>2240.03</v>
+        <v>2356.93</v>
       </c>
       <c r="C97" t="n">
-        <v>2270</v>
+        <v>2358.98</v>
       </c>
       <c r="D97" t="n">
-        <v>2118</v>
+        <v>2336.4</v>
       </c>
       <c r="E97" t="n">
-        <v>2266.59</v>
+        <v>2337.46</v>
       </c>
       <c r="F97" t="n">
-        <v>4455.11356996</v>
+        <v>889.70757497</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45299.54166666666</v>
+        <v>45299.875</v>
       </c>
       <c r="B98" t="n">
-        <v>2266.92</v>
+        <v>2337.5</v>
       </c>
       <c r="C98" t="n">
-        <v>2277.43</v>
+        <v>2348.36</v>
       </c>
       <c r="D98" t="n">
-        <v>2261.26</v>
+        <v>2335.09</v>
       </c>
       <c r="E98" t="n">
-        <v>2267.99</v>
+        <v>2339.12</v>
       </c>
       <c r="F98" t="n">
-        <v>935.08097854</v>
+        <v>517.6777037000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45299.58333333334</v>
+        <v>45299.91666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>2267.66</v>
+        <v>2339.83</v>
       </c>
       <c r="C99" t="n">
-        <v>2274.38</v>
+        <v>2344.6</v>
       </c>
       <c r="D99" t="n">
-        <v>2258.79</v>
+        <v>2335.11</v>
       </c>
       <c r="E99" t="n">
-        <v>2263</v>
+        <v>2338.99</v>
       </c>
       <c r="F99" t="n">
-        <v>609.90021346</v>
+        <v>328.53111701</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45299.625</v>
+        <v>45299.95833333334</v>
       </c>
       <c r="B100" t="n">
-        <v>2263</v>
+        <v>2338.99</v>
       </c>
       <c r="C100" t="n">
-        <v>2282.88</v>
+        <v>2339.32</v>
       </c>
       <c r="D100" t="n">
-        <v>2259.3</v>
+        <v>2328.99</v>
       </c>
       <c r="E100" t="n">
-        <v>2272.11</v>
+        <v>2333</v>
       </c>
       <c r="F100" t="n">
-        <v>855.2212027</v>
+        <v>459.14728003</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45299.66666666666</v>
+        <v>45300</v>
       </c>
       <c r="B101" t="n">
-        <v>2272.1</v>
+        <v>2333.01</v>
       </c>
       <c r="C101" t="n">
-        <v>2282.53</v>
+        <v>2338.63</v>
       </c>
       <c r="D101" t="n">
-        <v>2262.32</v>
+        <v>2292.55</v>
       </c>
       <c r="E101" t="n">
-        <v>2264.98</v>
+        <v>2307.41</v>
       </c>
       <c r="F101" t="n">
-        <v>534.83289125</v>
+        <v>906.28259353</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45299.70833333334</v>
+        <v>45300.04166666666</v>
       </c>
       <c r="B102" t="n">
-        <v>2264.98</v>
+        <v>2307.42</v>
       </c>
       <c r="C102" t="n">
-        <v>2307.85</v>
+        <v>2315.57</v>
       </c>
       <c r="D102" t="n">
-        <v>2263.72</v>
+        <v>2298.44</v>
       </c>
       <c r="E102" t="n">
-        <v>2307.85</v>
+        <v>2309.11</v>
       </c>
       <c r="F102" t="n">
-        <v>2661.9055928</v>
+        <v>282.30538088</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45299.75</v>
+        <v>45300.08333333334</v>
       </c>
       <c r="B103" t="n">
-        <v>2307.86</v>
+        <v>2309.11</v>
       </c>
       <c r="C103" t="n">
-        <v>2340.68</v>
+        <v>2317.23</v>
       </c>
       <c r="D103" t="n">
-        <v>2307.33</v>
+        <v>2308.84</v>
       </c>
       <c r="E103" t="n">
-        <v>2338.63</v>
+        <v>2313.2</v>
       </c>
       <c r="F103" t="n">
-        <v>1481.31341428</v>
+        <v>396.42133677</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45299.79166666666</v>
+        <v>45300.125</v>
       </c>
       <c r="B104" t="n">
-        <v>2338.08</v>
+        <v>2313.21</v>
       </c>
       <c r="C104" t="n">
-        <v>2358.98</v>
+        <v>2314.77</v>
       </c>
       <c r="D104" t="n">
-        <v>2324.11</v>
+        <v>2309.5</v>
       </c>
       <c r="E104" t="n">
-        <v>2356.92</v>
+        <v>2311.21</v>
       </c>
       <c r="F104" t="n">
-        <v>2970.03246412</v>
+        <v>152.22077389</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45299.83333333334</v>
+        <v>45300.16666666666</v>
       </c>
       <c r="B105" t="n">
-        <v>2356.93</v>
+        <v>2311.17</v>
       </c>
       <c r="C105" t="n">
-        <v>2358.98</v>
+        <v>2317.56</v>
       </c>
       <c r="D105" t="n">
-        <v>2336.4</v>
+        <v>2303.04</v>
       </c>
       <c r="E105" t="n">
-        <v>2337.46</v>
+        <v>2317.18</v>
       </c>
       <c r="F105" t="n">
-        <v>889.70757497</v>
+        <v>205.56532027</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45299.875</v>
+        <v>45300.20833333334</v>
       </c>
       <c r="B106" t="n">
-        <v>2337.5</v>
+        <v>2316.49</v>
       </c>
       <c r="C106" t="n">
-        <v>2348.36</v>
+        <v>2318.11</v>
       </c>
       <c r="D106" t="n">
-        <v>2335.09</v>
+        <v>2303.05</v>
       </c>
       <c r="E106" t="n">
-        <v>2339.12</v>
+        <v>2309.79</v>
       </c>
       <c r="F106" t="n">
-        <v>517.6777037000001</v>
+        <v>353.40682024</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45299.91666666666</v>
+        <v>45300.25</v>
       </c>
       <c r="B107" t="n">
-        <v>2339.83</v>
+        <v>2309.8</v>
       </c>
       <c r="C107" t="n">
-        <v>2344.6</v>
+        <v>2310.32</v>
       </c>
       <c r="D107" t="n">
-        <v>2335.11</v>
+        <v>2300.27</v>
       </c>
       <c r="E107" t="n">
-        <v>2338.99</v>
+        <v>2303.49</v>
       </c>
       <c r="F107" t="n">
-        <v>328.53111701</v>
+        <v>163.20511125</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45299.95833333334</v>
+        <v>45300.29166666666</v>
       </c>
       <c r="B108" t="n">
-        <v>2338.99</v>
+        <v>2303.49</v>
       </c>
       <c r="C108" t="n">
-        <v>2339.32</v>
+        <v>2309.82</v>
       </c>
       <c r="D108" t="n">
-        <v>2328.99</v>
+        <v>2300.43</v>
       </c>
       <c r="E108" t="n">
-        <v>2333</v>
+        <v>2308.39</v>
       </c>
       <c r="F108" t="n">
-        <v>459.14728003</v>
+        <v>253.6373485</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45300</v>
+        <v>45300.33333333334</v>
       </c>
       <c r="B109" t="n">
-        <v>2333.01</v>
+        <v>2308.39</v>
       </c>
       <c r="C109" t="n">
-        <v>2338.63</v>
+        <v>2310.8</v>
       </c>
       <c r="D109" t="n">
-        <v>2292.55</v>
+        <v>2293.11</v>
       </c>
       <c r="E109" t="n">
-        <v>2307.41</v>
+        <v>2293.11</v>
       </c>
       <c r="F109" t="n">
-        <v>906.28259353</v>
+        <v>754.64792933</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45300.04166666666</v>
+        <v>45300.375</v>
       </c>
       <c r="B110" t="n">
-        <v>2307.42</v>
+        <v>2293.1</v>
       </c>
       <c r="C110" t="n">
-        <v>2315.57</v>
+        <v>2296.76</v>
       </c>
       <c r="D110" t="n">
-        <v>2298.44</v>
+        <v>2285</v>
       </c>
       <c r="E110" t="n">
-        <v>2309.11</v>
+        <v>2292.89</v>
       </c>
       <c r="F110" t="n">
-        <v>282.30538088</v>
+        <v>628.12954299</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45300.08333333334</v>
+        <v>45300.41666666666</v>
       </c>
       <c r="B111" t="n">
-        <v>2309.11</v>
+        <v>2292.89</v>
       </c>
       <c r="C111" t="n">
-        <v>2317.23</v>
+        <v>2301.5</v>
       </c>
       <c r="D111" t="n">
-        <v>2308.84</v>
+        <v>2290.86</v>
       </c>
       <c r="E111" t="n">
-        <v>2313.2</v>
+        <v>2293.94</v>
       </c>
       <c r="F111" t="n">
-        <v>396.42133677</v>
+        <v>217.80386413</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45300.125</v>
+        <v>45300.45833333334</v>
       </c>
       <c r="B112" t="n">
-        <v>2313.21</v>
+        <v>2293.94</v>
       </c>
       <c r="C112" t="n">
-        <v>2314.77</v>
+        <v>2302.99</v>
       </c>
       <c r="D112" t="n">
-        <v>2309.5</v>
+        <v>2291.6</v>
       </c>
       <c r="E112" t="n">
-        <v>2311.21</v>
+        <v>2300.5</v>
       </c>
       <c r="F112" t="n">
-        <v>152.22077389</v>
+        <v>259.6039118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45300.16666666666</v>
+        <v>45300.5</v>
       </c>
       <c r="B113" t="n">
-        <v>2311.17</v>
+        <v>2300.19</v>
       </c>
       <c r="C113" t="n">
-        <v>2317.56</v>
+        <v>2303.71</v>
       </c>
       <c r="D113" t="n">
-        <v>2303.04</v>
+        <v>2230</v>
       </c>
       <c r="E113" t="n">
-        <v>2317.18</v>
+        <v>2266.81</v>
       </c>
       <c r="F113" t="n">
-        <v>205.56532027</v>
+        <v>2425.55074033</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45300.20833333334</v>
+        <v>45300.54166666666</v>
       </c>
       <c r="B114" t="n">
-        <v>2316.49</v>
+        <v>2265.91</v>
       </c>
       <c r="C114" t="n">
-        <v>2318.11</v>
+        <v>2283.32</v>
       </c>
       <c r="D114" t="n">
-        <v>2303.05</v>
+        <v>2261.91</v>
       </c>
       <c r="E114" t="n">
-        <v>2309.79</v>
+        <v>2274.86</v>
       </c>
       <c r="F114" t="n">
-        <v>353.40682024</v>
+        <v>884.4228865</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45300.25</v>
+        <v>45300.58333333334</v>
       </c>
       <c r="B115" t="n">
-        <v>2309.8</v>
+        <v>2274.86</v>
       </c>
       <c r="C115" t="n">
-        <v>2310.32</v>
+        <v>2283.63</v>
       </c>
       <c r="D115" t="n">
-        <v>2300.27</v>
+        <v>2244.65</v>
       </c>
       <c r="E115" t="n">
-        <v>2303.49</v>
+        <v>2248.19</v>
       </c>
       <c r="F115" t="n">
-        <v>163.20511125</v>
+        <v>1133.97363962</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45300.29166666666</v>
+        <v>45300.625</v>
       </c>
       <c r="B116" t="n">
-        <v>2303.49</v>
+        <v>2248.32</v>
       </c>
       <c r="C116" t="n">
-        <v>2309.82</v>
+        <v>2267.99</v>
       </c>
       <c r="D116" t="n">
-        <v>2300.43</v>
+        <v>2243.64</v>
       </c>
       <c r="E116" t="n">
-        <v>2308.39</v>
+        <v>2258.99</v>
       </c>
       <c r="F116" t="n">
-        <v>253.6373485</v>
+        <v>927.51488814</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45300.33333333334</v>
+        <v>45300.66666666666</v>
       </c>
       <c r="B117" t="n">
-        <v>2308.39</v>
+        <v>2258.99</v>
       </c>
       <c r="C117" t="n">
-        <v>2310.8</v>
+        <v>2266.31</v>
       </c>
       <c r="D117" t="n">
-        <v>2293.11</v>
+        <v>2245.09</v>
       </c>
       <c r="E117" t="n">
-        <v>2293.11</v>
+        <v>2265.06</v>
       </c>
       <c r="F117" t="n">
-        <v>754.64792933</v>
+        <v>853.55007936</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45300.375</v>
+        <v>45300.70833333334</v>
       </c>
       <c r="B118" t="n">
-        <v>2293.1</v>
+        <v>2265.06</v>
       </c>
       <c r="C118" t="n">
-        <v>2296.76</v>
+        <v>2269.81</v>
       </c>
       <c r="D118" t="n">
-        <v>2285</v>
+        <v>2257.73</v>
       </c>
       <c r="E118" t="n">
-        <v>2292.89</v>
+        <v>2264.9</v>
       </c>
       <c r="F118" t="n">
-        <v>628.12954299</v>
+        <v>538.4817775</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45300.41666666666</v>
+        <v>45300.75</v>
       </c>
       <c r="B119" t="n">
-        <v>2292.89</v>
+        <v>2264.91</v>
       </c>
       <c r="C119" t="n">
-        <v>2301.5</v>
+        <v>2277.33</v>
       </c>
       <c r="D119" t="n">
-        <v>2290.86</v>
+        <v>2261.72</v>
       </c>
       <c r="E119" t="n">
-        <v>2293.94</v>
+        <v>2275.23</v>
       </c>
       <c r="F119" t="n">
-        <v>217.80386413</v>
+        <v>384.38337346</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45300.45833333334</v>
+        <v>45300.79166666666</v>
       </c>
       <c r="B120" t="n">
-        <v>2293.94</v>
+        <v>2275.24</v>
       </c>
       <c r="C120" t="n">
-        <v>2302.99</v>
+        <v>2277.44</v>
       </c>
       <c r="D120" t="n">
-        <v>2291.6</v>
+        <v>2258.77</v>
       </c>
       <c r="E120" t="n">
-        <v>2300.5</v>
+        <v>2270.13</v>
       </c>
       <c r="F120" t="n">
-        <v>259.6039118</v>
+        <v>439.49937954</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45300.5</v>
+        <v>45300.83333333334</v>
       </c>
       <c r="B121" t="n">
-        <v>2300.19</v>
+        <v>2270.14</v>
       </c>
       <c r="C121" t="n">
-        <v>2303.71</v>
+        <v>2274.76</v>
       </c>
       <c r="D121" t="n">
-        <v>2230</v>
+        <v>2249.5</v>
       </c>
       <c r="E121" t="n">
-        <v>2266.81</v>
+        <v>2250.86</v>
       </c>
       <c r="F121" t="n">
-        <v>2425.55074033</v>
+        <v>1993.57783003</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45300.54166666666</v>
+        <v>45300.875</v>
       </c>
       <c r="B122" t="n">
-        <v>2265.91</v>
+        <v>2250.87</v>
       </c>
       <c r="C122" t="n">
-        <v>2283.32</v>
+        <v>2369.62</v>
       </c>
       <c r="D122" t="n">
-        <v>2261.91</v>
+        <v>2250.85</v>
       </c>
       <c r="E122" t="n">
-        <v>2274.86</v>
+        <v>2319.01</v>
       </c>
       <c r="F122" t="n">
-        <v>884.4228865</v>
+        <v>8545.466746730001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45300.58333333334</v>
+        <v>45300.91666666666</v>
       </c>
       <c r="B123" t="n">
-        <v>2274.86</v>
+        <v>2317.95</v>
       </c>
       <c r="C123" t="n">
-        <v>2283.63</v>
+        <v>2371.99</v>
       </c>
       <c r="D123" t="n">
-        <v>2244.65</v>
+        <v>2317.07</v>
       </c>
       <c r="E123" t="n">
-        <v>2248.19</v>
+        <v>2341.54</v>
       </c>
       <c r="F123" t="n">
-        <v>1133.97363962</v>
+        <v>3106.28839162</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45300.625</v>
+        <v>45300.95833333334</v>
       </c>
       <c r="B124" t="n">
-        <v>2248.32</v>
+        <v>2342.62</v>
       </c>
       <c r="C124" t="n">
-        <v>2267.99</v>
+        <v>2347.34</v>
       </c>
       <c r="D124" t="n">
-        <v>2243.64</v>
+        <v>2320</v>
       </c>
       <c r="E124" t="n">
-        <v>2258.99</v>
+        <v>2345.13</v>
       </c>
       <c r="F124" t="n">
-        <v>927.51488814</v>
+        <v>982.48284324</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45300.66666666666</v>
+        <v>45301</v>
       </c>
       <c r="B125" t="n">
-        <v>2258.99</v>
+        <v>2345.09</v>
       </c>
       <c r="C125" t="n">
-        <v>2266.31</v>
+        <v>2399</v>
       </c>
       <c r="D125" t="n">
-        <v>2245.09</v>
+        <v>2342.79</v>
       </c>
       <c r="E125" t="n">
-        <v>2265.06</v>
+        <v>2398.62</v>
       </c>
       <c r="F125" t="n">
-        <v>853.55007936</v>
+        <v>6653.07529236</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45300.70833333334</v>
+        <v>45301.04166666666</v>
       </c>
       <c r="B126" t="n">
-        <v>2265.06</v>
+        <v>2398.99</v>
       </c>
       <c r="C126" t="n">
-        <v>2269.81</v>
+        <v>2400</v>
       </c>
       <c r="D126" t="n">
-        <v>2257.73</v>
+        <v>2367.28</v>
       </c>
       <c r="E126" t="n">
-        <v>2264.9</v>
+        <v>2377.09</v>
       </c>
       <c r="F126" t="n">
-        <v>538.4817775</v>
+        <v>938.2091253999999</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45300.75</v>
+        <v>45301.08333333334</v>
       </c>
       <c r="B127" t="n">
-        <v>2264.91</v>
+        <v>2377.1</v>
       </c>
       <c r="C127" t="n">
-        <v>2277.33</v>
+        <v>2377.1</v>
       </c>
       <c r="D127" t="n">
-        <v>2261.72</v>
+        <v>2347.34</v>
       </c>
       <c r="E127" t="n">
-        <v>2275.23</v>
+        <v>2347.35</v>
       </c>
       <c r="F127" t="n">
-        <v>384.38337346</v>
+        <v>1428.42210064</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45300.79166666666</v>
+        <v>45301.125</v>
       </c>
       <c r="B128" t="n">
-        <v>2275.24</v>
+        <v>2347.35</v>
       </c>
       <c r="C128" t="n">
-        <v>2277.44</v>
+        <v>2368.28</v>
       </c>
       <c r="D128" t="n">
-        <v>2258.77</v>
+        <v>2346.59</v>
       </c>
       <c r="E128" t="n">
-        <v>2270.13</v>
+        <v>2362.54</v>
       </c>
       <c r="F128" t="n">
-        <v>439.49937954</v>
+        <v>485.71977442</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45300.83333333334</v>
+        <v>45301.16666666666</v>
       </c>
       <c r="B129" t="n">
-        <v>2270.14</v>
+        <v>2362.67</v>
       </c>
       <c r="C129" t="n">
-        <v>2274.76</v>
+        <v>2387.66</v>
       </c>
       <c r="D129" t="n">
-        <v>2249.5</v>
+        <v>2360</v>
       </c>
       <c r="E129" t="n">
-        <v>2250.86</v>
+        <v>2380.84</v>
       </c>
       <c r="F129" t="n">
-        <v>1993.57783003</v>
+        <v>948.0418859599999</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45300.875</v>
+        <v>45301.20833333334</v>
       </c>
       <c r="B130" t="n">
-        <v>2250.87</v>
+        <v>2380.52</v>
       </c>
       <c r="C130" t="n">
-        <v>2369.62</v>
+        <v>2392.05</v>
       </c>
       <c r="D130" t="n">
-        <v>2250.85</v>
+        <v>2372.93</v>
       </c>
       <c r="E130" t="n">
-        <v>2319.01</v>
+        <v>2386.56</v>
       </c>
       <c r="F130" t="n">
-        <v>8545.466746730001</v>
+        <v>245.79077564</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45300.91666666666</v>
+        <v>45301.25</v>
       </c>
       <c r="B131" t="n">
-        <v>2317.95</v>
+        <v>2386.56</v>
       </c>
       <c r="C131" t="n">
-        <v>2371.99</v>
+        <v>2387.44</v>
       </c>
       <c r="D131" t="n">
-        <v>2317.07</v>
+        <v>2374.22</v>
       </c>
       <c r="E131" t="n">
-        <v>2341.54</v>
+        <v>2381.05</v>
       </c>
       <c r="F131" t="n">
-        <v>3106.28839162</v>
+        <v>232.98593185</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45300.95833333334</v>
+        <v>45301.29166666666</v>
       </c>
       <c r="B132" t="n">
-        <v>2342.62</v>
+        <v>2381.05</v>
       </c>
       <c r="C132" t="n">
-        <v>2347.34</v>
+        <v>2384.77</v>
       </c>
       <c r="D132" t="n">
-        <v>2320</v>
+        <v>2368.46</v>
       </c>
       <c r="E132" t="n">
-        <v>2345.13</v>
+        <v>2370.5</v>
       </c>
       <c r="F132" t="n">
-        <v>982.48284324</v>
+        <v>967.2372583600001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45301</v>
+        <v>45301.33333333334</v>
       </c>
       <c r="B133" t="n">
-        <v>2345.09</v>
+        <v>2370.51</v>
       </c>
       <c r="C133" t="n">
-        <v>2399</v>
+        <v>2382.99</v>
       </c>
       <c r="D133" t="n">
-        <v>2342.79</v>
+        <v>2365.37</v>
       </c>
       <c r="E133" t="n">
-        <v>2398.62</v>
+        <v>2366.88</v>
       </c>
       <c r="F133" t="n">
-        <v>6653.07529236</v>
+        <v>785.27874557</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45301.04166666666</v>
+        <v>45301.375</v>
       </c>
       <c r="B134" t="n">
-        <v>2398.99</v>
+        <v>2365.73</v>
       </c>
       <c r="C134" t="n">
-        <v>2400</v>
+        <v>2429</v>
       </c>
       <c r="D134" t="n">
-        <v>2367.28</v>
+        <v>2365.73</v>
       </c>
       <c r="E134" t="n">
-        <v>2377.09</v>
+        <v>2423.93</v>
       </c>
       <c r="F134" t="n">
-        <v>938.2091253999999</v>
+        <v>2741.24141908</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45301.08333333334</v>
+        <v>45301.41666666666</v>
       </c>
       <c r="B135" t="n">
-        <v>2377.1</v>
+        <v>2424.72</v>
       </c>
       <c r="C135" t="n">
-        <v>2377.1</v>
+        <v>2426.86</v>
       </c>
       <c r="D135" t="n">
-        <v>2347.34</v>
+        <v>2403.2</v>
       </c>
       <c r="E135" t="n">
-        <v>2347.35</v>
+        <v>2403.2</v>
       </c>
       <c r="F135" t="n">
-        <v>1428.42210064</v>
+        <v>1095.25363362</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45301.125</v>
+        <v>45301.45833333334</v>
       </c>
       <c r="B136" t="n">
-        <v>2347.35</v>
+        <v>2403.13</v>
       </c>
       <c r="C136" t="n">
-        <v>2368.28</v>
+        <v>2409.95</v>
       </c>
       <c r="D136" t="n">
-        <v>2346.59</v>
+        <v>2372.52</v>
       </c>
       <c r="E136" t="n">
-        <v>2362.54</v>
+        <v>2401.85</v>
       </c>
       <c r="F136" t="n">
-        <v>485.71977442</v>
+        <v>847.6204797300001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45301.16666666666</v>
+        <v>45301.5</v>
       </c>
       <c r="B137" t="n">
-        <v>2362.67</v>
+        <v>2401.97</v>
       </c>
       <c r="C137" t="n">
-        <v>2387.66</v>
+        <v>2419.03</v>
       </c>
       <c r="D137" t="n">
-        <v>2360</v>
+        <v>2346.6</v>
       </c>
       <c r="E137" t="n">
-        <v>2380.84</v>
+        <v>2360.57</v>
       </c>
       <c r="F137" t="n">
-        <v>948.0418859599999</v>
+        <v>3157.10294066</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45301.20833333334</v>
+        <v>45301.54166666666</v>
       </c>
       <c r="B138" t="n">
-        <v>2380.52</v>
+        <v>2360.58</v>
       </c>
       <c r="C138" t="n">
-        <v>2392.05</v>
+        <v>2391.99</v>
       </c>
       <c r="D138" t="n">
-        <v>2372.93</v>
+        <v>2353.16</v>
       </c>
       <c r="E138" t="n">
-        <v>2386.56</v>
+        <v>2380.12</v>
       </c>
       <c r="F138" t="n">
-        <v>245.79077564</v>
+        <v>1661.90665094</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45301.25</v>
+        <v>45301.58333333334</v>
       </c>
       <c r="B139" t="n">
-        <v>2386.56</v>
+        <v>2380.13</v>
       </c>
       <c r="C139" t="n">
-        <v>2387.44</v>
+        <v>2394.77</v>
       </c>
       <c r="D139" t="n">
-        <v>2374.22</v>
+        <v>2370.98</v>
       </c>
       <c r="E139" t="n">
-        <v>2381.05</v>
+        <v>2385.77</v>
       </c>
       <c r="F139" t="n">
-        <v>232.98593185</v>
+        <v>448.04659212</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45301.29166666666</v>
+        <v>45301.625</v>
       </c>
       <c r="B140" t="n">
-        <v>2381.05</v>
+        <v>2385.77</v>
       </c>
       <c r="C140" t="n">
-        <v>2384.77</v>
+        <v>2456.17</v>
       </c>
       <c r="D140" t="n">
-        <v>2368.46</v>
+        <v>2384.41</v>
       </c>
       <c r="E140" t="n">
-        <v>2370.5</v>
+        <v>2450.33</v>
       </c>
       <c r="F140" t="n">
-        <v>967.2372583600001</v>
+        <v>3725.52634012</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45301.33333333334</v>
+        <v>45301.66666666666</v>
       </c>
       <c r="B141" t="n">
-        <v>2370.51</v>
+        <v>2449.67</v>
       </c>
       <c r="C141" t="n">
-        <v>2382.99</v>
+        <v>2457</v>
       </c>
       <c r="D141" t="n">
-        <v>2365.37</v>
+        <v>2407.08</v>
       </c>
       <c r="E141" t="n">
-        <v>2366.88</v>
+        <v>2408.1</v>
       </c>
       <c r="F141" t="n">
-        <v>785.27874557</v>
+        <v>1794.93000459</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45301.375</v>
+        <v>45301.70833333334</v>
       </c>
       <c r="B142" t="n">
-        <v>2365.73</v>
+        <v>2407.58</v>
       </c>
       <c r="C142" t="n">
-        <v>2429</v>
+        <v>2443.58</v>
       </c>
       <c r="D142" t="n">
-        <v>2365.73</v>
+        <v>2403</v>
       </c>
       <c r="E142" t="n">
-        <v>2423.93</v>
+        <v>2437.37</v>
       </c>
       <c r="F142" t="n">
-        <v>2741.24141908</v>
+        <v>1584.43892138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45301.41666666666</v>
+        <v>45301.75</v>
       </c>
       <c r="B143" t="n">
-        <v>2424.72</v>
+        <v>2437.9</v>
       </c>
       <c r="C143" t="n">
-        <v>2426.86</v>
+        <v>2442</v>
       </c>
       <c r="D143" t="n">
-        <v>2403.2</v>
+        <v>2416.94</v>
       </c>
       <c r="E143" t="n">
-        <v>2403.2</v>
+        <v>2436.24</v>
       </c>
       <c r="F143" t="n">
-        <v>1095.25363362</v>
+        <v>1677.09822716</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45301.45833333334</v>
+        <v>45301.79166666666</v>
       </c>
       <c r="B144" t="n">
-        <v>2403.13</v>
+        <v>2436.15</v>
       </c>
       <c r="C144" t="n">
-        <v>2409.95</v>
+        <v>2481.01</v>
       </c>
       <c r="D144" t="n">
-        <v>2372.52</v>
+        <v>2429.27</v>
       </c>
       <c r="E144" t="n">
-        <v>2401.85</v>
+        <v>2480.01</v>
       </c>
       <c r="F144" t="n">
-        <v>847.6204797300001</v>
+        <v>3854.25038427</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45301.5</v>
+        <v>45301.83333333334</v>
       </c>
       <c r="B145" t="n">
-        <v>2401.97</v>
+        <v>2480</v>
       </c>
       <c r="C145" t="n">
-        <v>2419.03</v>
+        <v>2488</v>
       </c>
       <c r="D145" t="n">
-        <v>2346.6</v>
+        <v>2407.46</v>
       </c>
       <c r="E145" t="n">
-        <v>2360.57</v>
+        <v>2485.55</v>
       </c>
       <c r="F145" t="n">
-        <v>3157.10294066</v>
+        <v>5063.53076687</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45301.54166666666</v>
+        <v>45301.875</v>
       </c>
       <c r="B146" t="n">
-        <v>2360.58</v>
+        <v>2484.95</v>
       </c>
       <c r="C146" t="n">
-        <v>2391.99</v>
+        <v>2533</v>
       </c>
       <c r="D146" t="n">
-        <v>2353.16</v>
+        <v>2475.49</v>
       </c>
       <c r="E146" t="n">
-        <v>2380.12</v>
+        <v>2527.97</v>
       </c>
       <c r="F146" t="n">
-        <v>1661.90665094</v>
+        <v>6861.55494716</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45301.58333333334</v>
+        <v>45301.91666666666</v>
       </c>
       <c r="B147" t="n">
-        <v>2380.13</v>
+        <v>2529.03</v>
       </c>
       <c r="C147" t="n">
-        <v>2394.77</v>
+        <v>2556.03</v>
       </c>
       <c r="D147" t="n">
-        <v>2370.98</v>
+        <v>2511.74</v>
       </c>
       <c r="E147" t="n">
-        <v>2385.77</v>
+        <v>2549.6</v>
       </c>
       <c r="F147" t="n">
-        <v>448.04659212</v>
+        <v>7983.55823651</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45301.625</v>
+        <v>45301.95833333334</v>
       </c>
       <c r="B148" t="n">
-        <v>2385.77</v>
+        <v>2549.61</v>
       </c>
       <c r="C148" t="n">
-        <v>2456.17</v>
+        <v>2642.03</v>
       </c>
       <c r="D148" t="n">
-        <v>2384.41</v>
+        <v>2547.33</v>
       </c>
       <c r="E148" t="n">
-        <v>2450.33</v>
+        <v>2584.13</v>
       </c>
       <c r="F148" t="n">
-        <v>3725.52634012</v>
+        <v>7588.28933667</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45301.66666666666</v>
+        <v>45302</v>
       </c>
       <c r="B149" t="n">
-        <v>2449.67</v>
+        <v>2584.06</v>
       </c>
       <c r="C149" t="n">
-        <v>2457</v>
+        <v>2609.09</v>
       </c>
       <c r="D149" t="n">
-        <v>2407.08</v>
+        <v>2567.59</v>
       </c>
       <c r="E149" t="n">
-        <v>2408.1</v>
+        <v>2607.1</v>
       </c>
       <c r="F149" t="n">
-        <v>1794.93000459</v>
+        <v>3875.31155643</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45301.70833333334</v>
+        <v>45302.04166666666</v>
       </c>
       <c r="B150" t="n">
-        <v>2407.58</v>
+        <v>2607.31</v>
       </c>
       <c r="C150" t="n">
-        <v>2443.58</v>
+        <v>2607.31</v>
       </c>
       <c r="D150" t="n">
-        <v>2403</v>
+        <v>2567.52</v>
       </c>
       <c r="E150" t="n">
-        <v>2437.37</v>
+        <v>2569.62</v>
       </c>
       <c r="F150" t="n">
-        <v>1584.43892138</v>
+        <v>1584.27027244</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45301.75</v>
+        <v>45302.08333333334</v>
       </c>
       <c r="B151" t="n">
-        <v>2437.9</v>
+        <v>2569.64</v>
       </c>
       <c r="C151" t="n">
-        <v>2442</v>
+        <v>2586.25</v>
       </c>
       <c r="D151" t="n">
-        <v>2416.94</v>
+        <v>2569.5</v>
       </c>
       <c r="E151" t="n">
-        <v>2436.24</v>
+        <v>2584</v>
       </c>
       <c r="F151" t="n">
-        <v>1677.09822716</v>
+        <v>616.60569942</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45301.79166666666</v>
+        <v>45302.125</v>
       </c>
       <c r="B152" t="n">
-        <v>2436.15</v>
+        <v>2583.45</v>
       </c>
       <c r="C152" t="n">
-        <v>2481.01</v>
+        <v>2614.63</v>
       </c>
       <c r="D152" t="n">
-        <v>2429.27</v>
+        <v>2573.28</v>
       </c>
       <c r="E152" t="n">
-        <v>2480.01</v>
+        <v>2614.4</v>
       </c>
       <c r="F152" t="n">
-        <v>3854.25038427</v>
+        <v>977.43823149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45301.83333333334</v>
+        <v>45302.16666666666</v>
       </c>
       <c r="B153" t="n">
-        <v>2480</v>
+        <v>2614.29</v>
       </c>
       <c r="C153" t="n">
-        <v>2488</v>
+        <v>2631.02</v>
       </c>
       <c r="D153" t="n">
-        <v>2407.46</v>
+        <v>2609.1</v>
       </c>
       <c r="E153" t="n">
-        <v>2485.55</v>
+        <v>2617.86</v>
       </c>
       <c r="F153" t="n">
-        <v>5063.53076687</v>
+        <v>829.82493822</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45301.875</v>
+        <v>45302.20833333334</v>
       </c>
       <c r="B154" t="n">
-        <v>2484.95</v>
+        <v>2617.98</v>
       </c>
       <c r="C154" t="n">
-        <v>2533</v>
+        <v>2617.98</v>
       </c>
       <c r="D154" t="n">
-        <v>2475.49</v>
+        <v>2586.28</v>
       </c>
       <c r="E154" t="n">
-        <v>2527.97</v>
+        <v>2598.08</v>
       </c>
       <c r="F154" t="n">
-        <v>6861.55494716</v>
+        <v>1327.8316241</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45301.91666666666</v>
+        <v>45302.25</v>
       </c>
       <c r="B155" t="n">
-        <v>2529.03</v>
+        <v>2598.08</v>
       </c>
       <c r="C155" t="n">
-        <v>2556.03</v>
+        <v>2598.87</v>
       </c>
       <c r="D155" t="n">
-        <v>2511.74</v>
+        <v>2575</v>
       </c>
       <c r="E155" t="n">
-        <v>2549.6</v>
+        <v>2578.48</v>
       </c>
       <c r="F155" t="n">
-        <v>7983.55823651</v>
+        <v>5113.21879572</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45301.95833333334</v>
+        <v>45302.29166666666</v>
       </c>
       <c r="B156" t="n">
-        <v>2549.61</v>
+        <v>2578.13</v>
       </c>
       <c r="C156" t="n">
-        <v>2642.03</v>
+        <v>2592.4</v>
       </c>
       <c r="D156" t="n">
-        <v>2547.33</v>
+        <v>2575.99</v>
       </c>
       <c r="E156" t="n">
-        <v>2584.13</v>
+        <v>2588.29</v>
       </c>
       <c r="F156" t="n">
-        <v>7588.28933667</v>
+        <v>1726.55135722</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45302</v>
+        <v>45302.33333333334</v>
       </c>
       <c r="B157" t="n">
-        <v>2584.06</v>
+        <v>2588.98</v>
       </c>
       <c r="C157" t="n">
-        <v>2609.09</v>
+        <v>2616.86</v>
       </c>
       <c r="D157" t="n">
-        <v>2567.59</v>
+        <v>2588.64</v>
       </c>
       <c r="E157" t="n">
-        <v>2607.1</v>
+        <v>2616.33</v>
       </c>
       <c r="F157" t="n">
-        <v>3875.31155643</v>
+        <v>471.14704741</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45302.04166666666</v>
+        <v>45302.375</v>
       </c>
       <c r="B158" t="n">
-        <v>2607.31</v>
+        <v>2616.34</v>
       </c>
       <c r="C158" t="n">
-        <v>2607.31</v>
+        <v>2620.98</v>
       </c>
       <c r="D158" t="n">
-        <v>2567.52</v>
+        <v>2606.02</v>
       </c>
       <c r="E158" t="n">
-        <v>2569.62</v>
+        <v>2610.98</v>
       </c>
       <c r="F158" t="n">
-        <v>1584.27027244</v>
+        <v>615.23021762</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45302.08333333334</v>
+        <v>45302.41666666666</v>
       </c>
       <c r="B159" t="n">
-        <v>2569.64</v>
+        <v>2610.01</v>
       </c>
       <c r="C159" t="n">
-        <v>2586.25</v>
+        <v>2649</v>
       </c>
       <c r="D159" t="n">
-        <v>2569.5</v>
+        <v>2608.99</v>
       </c>
       <c r="E159" t="n">
-        <v>2584</v>
+        <v>2637.86</v>
       </c>
       <c r="F159" t="n">
-        <v>616.60569942</v>
+        <v>2231.80723624</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45302.125</v>
+        <v>45302.45833333334</v>
       </c>
       <c r="B160" t="n">
-        <v>2583.45</v>
+        <v>2637.87</v>
       </c>
       <c r="C160" t="n">
-        <v>2614.63</v>
+        <v>2666</v>
       </c>
       <c r="D160" t="n">
-        <v>2573.28</v>
+        <v>2630</v>
       </c>
       <c r="E160" t="n">
-        <v>2614.4</v>
+        <v>2660.01</v>
       </c>
       <c r="F160" t="n">
-        <v>977.43823149</v>
+        <v>1231.72333932</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45302.16666666666</v>
+        <v>45302.5</v>
       </c>
       <c r="B161" t="n">
-        <v>2614.29</v>
+        <v>2660.01</v>
       </c>
       <c r="C161" t="n">
-        <v>2630</v>
+        <v>2662.67</v>
       </c>
       <c r="D161" t="n">
-        <v>2612.66</v>
+        <v>2640</v>
       </c>
       <c r="E161" t="n">
-        <v>2630</v>
+        <v>2642.94</v>
       </c>
       <c r="F161" t="n">
-        <v>166.42659525</v>
+        <v>2349.75976168</v>
       </c>
     </row>
   </sheetData>
